--- a/counts/ALS Mice/experimental/results/control_1-tg_1/KEGG.xlsx
+++ b/counts/ALS Mice/experimental/results/control_1-tg_1/KEGG.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="747">
   <si>
     <t>ID</t>
   </si>
@@ -72,9 +72,6 @@
     <t>mmu04360</t>
   </si>
   <si>
-    <t>mmu05225</t>
-  </si>
-  <si>
     <t>mmu04810</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
     <t>mmu05220</t>
   </si>
   <si>
+    <t>mmu04066</t>
+  </si>
+  <si>
     <t>mmu00510</t>
   </si>
   <si>
@@ -150,9 +150,6 @@
     <t>mmu05213</t>
   </si>
   <si>
-    <t>mmu04066</t>
-  </si>
-  <si>
     <t>mmu00062</t>
   </si>
   <si>
@@ -165,15 +162,15 @@
     <t>mmu04071</t>
   </si>
   <si>
+    <t>mmu05212</t>
+  </si>
+  <si>
+    <t>mmu04916</t>
+  </si>
+  <si>
     <t>mmu05211</t>
   </si>
   <si>
-    <t>mmu05212</t>
-  </si>
-  <si>
-    <t>mmu04916</t>
-  </si>
-  <si>
     <t>mmu04150</t>
   </si>
   <si>
@@ -228,12 +225,12 @@
     <t>mmu04024</t>
   </si>
   <si>
+    <t>mmu01200</t>
+  </si>
+  <si>
     <t>mmu00100</t>
   </si>
   <si>
-    <t>mmu01200</t>
-  </si>
-  <si>
     <t>mmu00561</t>
   </si>
   <si>
@@ -414,9 +411,6 @@
     <t>Axon guidance</t>
   </si>
   <si>
-    <t>Hepatocellular carcinoma</t>
-  </si>
-  <si>
     <t>Regulation of actin cytoskeleton</t>
   </si>
   <si>
@@ -483,6 +477,9 @@
     <t>Chronic myeloid leukemia</t>
   </si>
   <si>
+    <t>HIF-1 signaling pathway</t>
+  </si>
+  <si>
     <t>N-Glycan biosynthesis</t>
   </si>
   <si>
@@ -492,9 +489,6 @@
     <t>Endometrial cancer</t>
   </si>
   <si>
-    <t>HIF-1 signaling pathway</t>
-  </si>
-  <si>
     <t>Fatty acid elongation</t>
   </si>
   <si>
@@ -507,15 +501,15 @@
     <t>Sphingolipid signaling pathway</t>
   </si>
   <si>
+    <t>Pancreatic cancer</t>
+  </si>
+  <si>
+    <t>Melanogenesis</t>
+  </si>
+  <si>
     <t>Renal cell carcinoma</t>
   </si>
   <si>
-    <t>Pancreatic cancer</t>
-  </si>
-  <si>
-    <t>Melanogenesis</t>
-  </si>
-  <si>
     <t>mTOR signaling pathway</t>
   </si>
   <si>
@@ -570,12 +564,12 @@
     <t>cAMP signaling pathway</t>
   </si>
   <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
     <t>Steroid biosynthesis</t>
   </si>
   <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
@@ -726,490 +720,484 @@
     <t>Selenocompound metabolism</t>
   </si>
   <si>
-    <t>123/2562</t>
-  </si>
-  <si>
-    <t>188/2562</t>
-  </si>
-  <si>
-    <t>202/2562</t>
-  </si>
-  <si>
-    <t>96/2562</t>
-  </si>
-  <si>
-    <t>54/2562</t>
-  </si>
-  <si>
-    <t>59/2562</t>
-  </si>
-  <si>
-    <t>115/2562</t>
-  </si>
-  <si>
-    <t>61/2562</t>
-  </si>
-  <si>
-    <t>167/2562</t>
-  </si>
-  <si>
-    <t>97/2562</t>
-  </si>
-  <si>
-    <t>94/2562</t>
-  </si>
-  <si>
-    <t>112/2562</t>
-  </si>
-  <si>
-    <t>85/2562</t>
-  </si>
-  <si>
-    <t>139/2562</t>
-  </si>
-  <si>
-    <t>42/2562</t>
-  </si>
-  <si>
-    <t>77/2562</t>
-  </si>
-  <si>
-    <t>57/2562</t>
-  </si>
-  <si>
-    <t>46/2562</t>
-  </si>
-  <si>
-    <t>72/2562</t>
-  </si>
-  <si>
-    <t>75/2562</t>
-  </si>
-  <si>
-    <t>83/2562</t>
-  </si>
-  <si>
-    <t>70/2562</t>
-  </si>
-  <si>
-    <t>58/2562</t>
-  </si>
-  <si>
-    <t>53/2562</t>
-  </si>
-  <si>
-    <t>67/2562</t>
-  </si>
-  <si>
-    <t>29/2562</t>
-  </si>
-  <si>
-    <t>98/2562</t>
-  </si>
-  <si>
-    <t>119/2562</t>
-  </si>
-  <si>
-    <t>56/2562</t>
-  </si>
-  <si>
-    <t>43/2562</t>
-  </si>
-  <si>
-    <t>30/2562</t>
-  </si>
-  <si>
-    <t>34/2562</t>
-  </si>
-  <si>
-    <t>19/2562</t>
-  </si>
-  <si>
-    <t>100/2562</t>
-  </si>
-  <si>
-    <t>37/2562</t>
-  </si>
-  <si>
-    <t>39/2562</t>
-  </si>
-  <si>
-    <t>49/2562</t>
-  </si>
-  <si>
-    <t>69/2562</t>
-  </si>
-  <si>
-    <t>38/2562</t>
-  </si>
-  <si>
-    <t>18/2562</t>
-  </si>
-  <si>
-    <t>17/2562</t>
-  </si>
-  <si>
-    <t>63/2562</t>
-  </si>
-  <si>
-    <t>40/2562</t>
-  </si>
-  <si>
-    <t>15/2562</t>
-  </si>
-  <si>
-    <t>104/2562</t>
-  </si>
-  <si>
-    <t>28/2562</t>
-  </si>
-  <si>
-    <t>55/2562</t>
-  </si>
-  <si>
-    <t>13/2562</t>
-  </si>
-  <si>
-    <t>31/2562</t>
-  </si>
-  <si>
-    <t>33/2562</t>
-  </si>
-  <si>
-    <t>52/2562</t>
-  </si>
-  <si>
-    <t>32/2562</t>
-  </si>
-  <si>
-    <t>44/2562</t>
-  </si>
-  <si>
-    <t>23/2562</t>
-  </si>
-  <si>
-    <t>25/2562</t>
-  </si>
-  <si>
-    <t>45/2562</t>
-  </si>
-  <si>
-    <t>22/2562</t>
-  </si>
-  <si>
-    <t>36/2562</t>
-  </si>
-  <si>
-    <t>89/2562</t>
-  </si>
-  <si>
-    <t>60/2562</t>
-  </si>
-  <si>
-    <t>20/2562</t>
-  </si>
-  <si>
-    <t>24/2562</t>
-  </si>
-  <si>
-    <t>21/2562</t>
-  </si>
-  <si>
-    <t>14/2562</t>
-  </si>
-  <si>
-    <t>86/2562</t>
-  </si>
-  <si>
-    <t>68/2562</t>
-  </si>
-  <si>
-    <t>11/2562</t>
-  </si>
-  <si>
-    <t>10/2562</t>
-  </si>
-  <si>
-    <t>199/8114</t>
-  </si>
-  <si>
-    <t>350/8114</t>
-  </si>
-  <si>
-    <t>394/8114</t>
-  </si>
-  <si>
-    <t>154/8114</t>
-  </si>
-  <si>
-    <t>72/8114</t>
-  </si>
-  <si>
-    <t>83/8114</t>
-  </si>
-  <si>
-    <t>206/8114</t>
-  </si>
-  <si>
-    <t>92/8114</t>
-  </si>
-  <si>
-    <t>346/8114</t>
-  </si>
-  <si>
-    <t>175/8114</t>
-  </si>
-  <si>
-    <t>170/8114</t>
-  </si>
-  <si>
-    <t>214/8114</t>
-  </si>
-  <si>
-    <t>151/8114</t>
-  </si>
-  <si>
-    <t>282/8114</t>
-  </si>
-  <si>
-    <t>63/8114</t>
-  </si>
-  <si>
-    <t>143/8114</t>
-  </si>
-  <si>
-    <t>146/8114</t>
-  </si>
-  <si>
-    <t>93/8114</t>
-  </si>
-  <si>
-    <t>100/8114</t>
-  </si>
-  <si>
-    <t>76/8114</t>
-  </si>
-  <si>
-    <t>137/8114</t>
-  </si>
-  <si>
-    <t>147/8114</t>
-  </si>
-  <si>
-    <t>167/8114</t>
-  </si>
-  <si>
-    <t>136/8114</t>
-  </si>
-  <si>
-    <t>108/8114</t>
-  </si>
-  <si>
-    <t>97/8114</t>
-  </si>
-  <si>
-    <t>131/8114</t>
-  </si>
-  <si>
-    <t>44/8114</t>
-  </si>
-  <si>
-    <t>213/8114</t>
-  </si>
-  <si>
-    <t>115/8114</t>
-  </si>
-  <si>
-    <t>270/8114</t>
-  </si>
-  <si>
-    <t>78/8114</t>
-  </si>
-  <si>
-    <t>49/8114</t>
-  </si>
-  <si>
-    <t>58/8114</t>
-  </si>
-  <si>
-    <t>106/8114</t>
-  </si>
-  <si>
-    <t>27/8114</t>
-  </si>
-  <si>
-    <t>228/8114</t>
-  </si>
-  <si>
-    <t>109/8114</t>
-  </si>
-  <si>
-    <t>122/8114</t>
-  </si>
-  <si>
-    <t>69/8114</t>
-  </si>
-  <si>
-    <t>75/8114</t>
-  </si>
-  <si>
-    <t>153/8114</t>
-  </si>
-  <si>
-    <t>74/8114</t>
-  </si>
-  <si>
-    <t>28/8114</t>
-  </si>
-  <si>
-    <t>87/8114</t>
-  </si>
-  <si>
-    <t>26/8114</t>
-  </si>
-  <si>
-    <t>139/8114</t>
-  </si>
-  <si>
-    <t>80/8114</t>
-  </si>
-  <si>
-    <t>22/8114</t>
-  </si>
-  <si>
-    <t>124/8114</t>
-  </si>
-  <si>
-    <t>252/8114</t>
-  </si>
-  <si>
-    <t>52/8114</t>
-  </si>
-  <si>
-    <t>231/8114</t>
-  </si>
-  <si>
-    <t>126/8114</t>
-  </si>
-  <si>
-    <t>121/8114</t>
-  </si>
-  <si>
-    <t>23/8114</t>
-  </si>
-  <si>
-    <t>197/8114</t>
-  </si>
-  <si>
-    <t>19/8114</t>
-  </si>
-  <si>
-    <t>120/8114</t>
-  </si>
-  <si>
-    <t>61/8114</t>
-  </si>
-  <si>
-    <t>66/8114</t>
-  </si>
-  <si>
-    <t>64/8114</t>
-  </si>
-  <si>
-    <t>90/8114</t>
-  </si>
-  <si>
-    <t>20/8114</t>
-  </si>
-  <si>
-    <t>96/8114</t>
-  </si>
-  <si>
-    <t>43/8114</t>
-  </si>
-  <si>
-    <t>128/8114</t>
-  </si>
-  <si>
-    <t>48/8114</t>
-  </si>
-  <si>
-    <t>99/8114</t>
-  </si>
-  <si>
-    <t>86/8114</t>
-  </si>
-  <si>
-    <t>134/8114</t>
-  </si>
-  <si>
-    <t>41/8114</t>
-  </si>
-  <si>
-    <t>220/8114</t>
-  </si>
-  <si>
-    <t>32/8114</t>
-  </si>
-  <si>
-    <t>141/8114</t>
-  </si>
-  <si>
-    <t>37/8114</t>
-  </si>
-  <si>
-    <t>85/8114</t>
-  </si>
-  <si>
-    <t>47/8114</t>
-  </si>
-  <si>
-    <t>40/8114</t>
-  </si>
-  <si>
-    <t>132/8114</t>
-  </si>
-  <si>
-    <t>168/8114</t>
-  </si>
-  <si>
-    <t>24/8114</t>
-  </si>
-  <si>
-    <t>130/8114</t>
-  </si>
-  <si>
-    <t>217/8114</t>
-  </si>
-  <si>
-    <t>101/8114</t>
-  </si>
-  <si>
-    <t>142/8114</t>
-  </si>
-  <si>
-    <t>59/8114</t>
-  </si>
-  <si>
-    <t>62/8114</t>
-  </si>
-  <si>
-    <t>18/8114</t>
-  </si>
-  <si>
-    <t>89/8114</t>
-  </si>
-  <si>
-    <t>195/8114</t>
-  </si>
-  <si>
-    <t>71/8114</t>
-  </si>
-  <si>
-    <t>67/8114</t>
-  </si>
-  <si>
-    <t>17/8114</t>
+    <t>123/2554</t>
+  </si>
+  <si>
+    <t>188/2554</t>
+  </si>
+  <si>
+    <t>202/2554</t>
+  </si>
+  <si>
+    <t>96/2554</t>
+  </si>
+  <si>
+    <t>54/2554</t>
+  </si>
+  <si>
+    <t>59/2554</t>
+  </si>
+  <si>
+    <t>115/2554</t>
+  </si>
+  <si>
+    <t>61/2554</t>
+  </si>
+  <si>
+    <t>167/2554</t>
+  </si>
+  <si>
+    <t>97/2554</t>
+  </si>
+  <si>
+    <t>112/2554</t>
+  </si>
+  <si>
+    <t>85/2554</t>
+  </si>
+  <si>
+    <t>139/2554</t>
+  </si>
+  <si>
+    <t>42/2554</t>
+  </si>
+  <si>
+    <t>77/2554</t>
+  </si>
+  <si>
+    <t>57/2554</t>
+  </si>
+  <si>
+    <t>46/2554</t>
+  </si>
+  <si>
+    <t>72/2554</t>
+  </si>
+  <si>
+    <t>75/2554</t>
+  </si>
+  <si>
+    <t>83/2554</t>
+  </si>
+  <si>
+    <t>70/2554</t>
+  </si>
+  <si>
+    <t>58/2554</t>
+  </si>
+  <si>
+    <t>49/2554</t>
+  </si>
+  <si>
+    <t>67/2554</t>
+  </si>
+  <si>
+    <t>29/2554</t>
+  </si>
+  <si>
+    <t>98/2554</t>
+  </si>
+  <si>
+    <t>119/2554</t>
+  </si>
+  <si>
+    <t>56/2554</t>
+  </si>
+  <si>
+    <t>43/2554</t>
+  </si>
+  <si>
+    <t>30/2554</t>
+  </si>
+  <si>
+    <t>34/2554</t>
+  </si>
+  <si>
+    <t>19/2554</t>
+  </si>
+  <si>
+    <t>100/2554</t>
+  </si>
+  <si>
+    <t>39/2554</t>
+  </si>
+  <si>
+    <t>35/2554</t>
+  </si>
+  <si>
+    <t>69/2554</t>
+  </si>
+  <si>
+    <t>38/2554</t>
+  </si>
+  <si>
+    <t>37/2554</t>
+  </si>
+  <si>
+    <t>18/2554</t>
+  </si>
+  <si>
+    <t>17/2554</t>
+  </si>
+  <si>
+    <t>63/2554</t>
+  </si>
+  <si>
+    <t>40/2554</t>
+  </si>
+  <si>
+    <t>15/2554</t>
+  </si>
+  <si>
+    <t>104/2554</t>
+  </si>
+  <si>
+    <t>28/2554</t>
+  </si>
+  <si>
+    <t>55/2554</t>
+  </si>
+  <si>
+    <t>13/2554</t>
+  </si>
+  <si>
+    <t>31/2554</t>
+  </si>
+  <si>
+    <t>33/2554</t>
+  </si>
+  <si>
+    <t>52/2554</t>
+  </si>
+  <si>
+    <t>32/2554</t>
+  </si>
+  <si>
+    <t>44/2554</t>
+  </si>
+  <si>
+    <t>23/2554</t>
+  </si>
+  <si>
+    <t>25/2554</t>
+  </si>
+  <si>
+    <t>45/2554</t>
+  </si>
+  <si>
+    <t>22/2554</t>
+  </si>
+  <si>
+    <t>36/2554</t>
+  </si>
+  <si>
+    <t>89/2554</t>
+  </si>
+  <si>
+    <t>60/2554</t>
+  </si>
+  <si>
+    <t>20/2554</t>
+  </si>
+  <si>
+    <t>24/2554</t>
+  </si>
+  <si>
+    <t>21/2554</t>
+  </si>
+  <si>
+    <t>14/2554</t>
+  </si>
+  <si>
+    <t>86/2554</t>
+  </si>
+  <si>
+    <t>68/2554</t>
+  </si>
+  <si>
+    <t>11/2554</t>
+  </si>
+  <si>
+    <t>10/2554</t>
+  </si>
+  <si>
+    <t>199/8092</t>
+  </si>
+  <si>
+    <t>350/8092</t>
+  </si>
+  <si>
+    <t>394/8092</t>
+  </si>
+  <si>
+    <t>154/8092</t>
+  </si>
+  <si>
+    <t>72/8092</t>
+  </si>
+  <si>
+    <t>83/8092</t>
+  </si>
+  <si>
+    <t>206/8092</t>
+  </si>
+  <si>
+    <t>92/8092</t>
+  </si>
+  <si>
+    <t>346/8092</t>
+  </si>
+  <si>
+    <t>175/8092</t>
+  </si>
+  <si>
+    <t>214/8092</t>
+  </si>
+  <si>
+    <t>151/8092</t>
+  </si>
+  <si>
+    <t>282/8092</t>
+  </si>
+  <si>
+    <t>63/8092</t>
+  </si>
+  <si>
+    <t>143/8092</t>
+  </si>
+  <si>
+    <t>146/8092</t>
+  </si>
+  <si>
+    <t>93/8092</t>
+  </si>
+  <si>
+    <t>100/8092</t>
+  </si>
+  <si>
+    <t>76/8092</t>
+  </si>
+  <si>
+    <t>137/8092</t>
+  </si>
+  <si>
+    <t>147/8092</t>
+  </si>
+  <si>
+    <t>167/8092</t>
+  </si>
+  <si>
+    <t>136/8092</t>
+  </si>
+  <si>
+    <t>108/8092</t>
+  </si>
+  <si>
+    <t>87/8092</t>
+  </si>
+  <si>
+    <t>131/8092</t>
+  </si>
+  <si>
+    <t>44/8092</t>
+  </si>
+  <si>
+    <t>213/8092</t>
+  </si>
+  <si>
+    <t>115/8092</t>
+  </si>
+  <si>
+    <t>270/8092</t>
+  </si>
+  <si>
+    <t>78/8092</t>
+  </si>
+  <si>
+    <t>105/8092</t>
+  </si>
+  <si>
+    <t>49/8092</t>
+  </si>
+  <si>
+    <t>58/8092</t>
+  </si>
+  <si>
+    <t>27/8092</t>
+  </si>
+  <si>
+    <t>228/8092</t>
+  </si>
+  <si>
+    <t>109/8092</t>
+  </si>
+  <si>
+    <t>122/8092</t>
+  </si>
+  <si>
+    <t>75/8092</t>
+  </si>
+  <si>
+    <t>66/8092</t>
+  </si>
+  <si>
+    <t>153/8092</t>
+  </si>
+  <si>
+    <t>74/8092</t>
+  </si>
+  <si>
+    <t>28/8092</t>
+  </si>
+  <si>
+    <t>26/8092</t>
+  </si>
+  <si>
+    <t>139/8092</t>
+  </si>
+  <si>
+    <t>80/8092</t>
+  </si>
+  <si>
+    <t>22/8092</t>
+  </si>
+  <si>
+    <t>124/8092</t>
+  </si>
+  <si>
+    <t>252/8092</t>
+  </si>
+  <si>
+    <t>52/8092</t>
+  </si>
+  <si>
+    <t>231/8092</t>
+  </si>
+  <si>
+    <t>97/8092</t>
+  </si>
+  <si>
+    <t>126/8092</t>
+  </si>
+  <si>
+    <t>121/8092</t>
+  </si>
+  <si>
+    <t>23/8092</t>
+  </si>
+  <si>
+    <t>197/8092</t>
+  </si>
+  <si>
+    <t>119/8092</t>
+  </si>
+  <si>
+    <t>19/8092</t>
+  </si>
+  <si>
+    <t>61/8092</t>
+  </si>
+  <si>
+    <t>69/8092</t>
+  </si>
+  <si>
+    <t>64/8092</t>
+  </si>
+  <si>
+    <t>90/8092</t>
+  </si>
+  <si>
+    <t>20/8092</t>
+  </si>
+  <si>
+    <t>96/8092</t>
+  </si>
+  <si>
+    <t>43/8092</t>
+  </si>
+  <si>
+    <t>128/8092</t>
+  </si>
+  <si>
+    <t>48/8092</t>
+  </si>
+  <si>
+    <t>99/8092</t>
+  </si>
+  <si>
+    <t>86/8092</t>
+  </si>
+  <si>
+    <t>134/8092</t>
+  </si>
+  <si>
+    <t>41/8092</t>
+  </si>
+  <si>
+    <t>220/8092</t>
+  </si>
+  <si>
+    <t>32/8092</t>
+  </si>
+  <si>
+    <t>141/8092</t>
+  </si>
+  <si>
+    <t>37/8092</t>
+  </si>
+  <si>
+    <t>85/8092</t>
+  </si>
+  <si>
+    <t>47/8092</t>
+  </si>
+  <si>
+    <t>40/8092</t>
+  </si>
+  <si>
+    <t>132/8092</t>
+  </si>
+  <si>
+    <t>168/8092</t>
+  </si>
+  <si>
+    <t>24/8092</t>
+  </si>
+  <si>
+    <t>130/8092</t>
+  </si>
+  <si>
+    <t>106/8092</t>
+  </si>
+  <si>
+    <t>217/8092</t>
+  </si>
+  <si>
+    <t>101/8092</t>
+  </si>
+  <si>
+    <t>142/8092</t>
+  </si>
+  <si>
+    <t>59/8092</t>
+  </si>
+  <si>
+    <t>62/8092</t>
+  </si>
+  <si>
+    <t>18/8092</t>
+  </si>
+  <si>
+    <t>89/8092</t>
+  </si>
+  <si>
+    <t>195/8092</t>
+  </si>
+  <si>
+    <t>71/8092</t>
+  </si>
+  <si>
+    <t>17/8092</t>
   </si>
   <si>
     <t>12444/16402/12833/16421/12842/16400/11651/19353/22371/16777/11652/19047/16001/12929/12540/12387/11848/17295/22325/19211/19046/109711/16776/21960/22370/14360/16775/16773/16000/13649/12834/16416/192897/20418/21828/22330/170736/14083/224105/16419/107589/21826/67268/18607/19877/13367/18596/12015/320910/16404/15461/16412/11798/12839/14268/226519/16782/12334/16780/241226/23928/16401/16410/16403/12841/20779/13645/54635/21827/21923/21894/12840/18710/15234/18595/19303/11461/12843/70584/94216/12830/192176/12826/12827/22341/18709/12927/11796/319480/16772/81877/22324/20663/18717/271849/104099/107746/18707/19045/18708/109700/19699/20416/12835/215449/16476/70549/16779/60595/11797/232906/330662/13866/11465/16542/26417/12829/98932/68794/109905/12443/214230/12828</t>
@@ -1242,9 +1230,6 @@
     <t>20355/20359/13642/319757/19353/13637/13845/13836/228026/12540/11848/14365/12162/17295/20358/14360/57764/107449/18208/20354/19056/218877/22418/12934/20356/14083/117606/224105/19876/73181/19877/20562/226251/15461/16412/18186/93742/20353/13838/53972/11350/214968/18019/20779/18176/20351/13842/13844/18710/20346/12568/18762/231148/65254/16885/13846/13835/18844/22419/259302/20352/70584/13641/140571/16728/18709/18021/270190/14678/245857/171171/140570/22417/237860/20361/20130/18707/108151/18708/12767/192198/13837/14159/235611/223881/12631/93737/14677/20347/69632/50780/22253/20315/12632/26417/20349/214230</t>
   </si>
   <si>
-    <t>22415/12006/21414/20587/11651/21803/13544/50868/12028/11652/15368/16001/11789/12567/12387/21812/93760/14365/17295/19211/18024/22411/13557/242705/13649/23805/50493/72508/13543/20418/21752/22418/19645/14368/17869/22422/12005/17128/93687/16973/12015/21416/68094/15461/56456/22414/18176/14865/16842/18710/15234/56717/13542/11461/93735/21802/22421/22419/16974/14388/18709/20586/17127/22420/20663/26396/271849/22417/14370/22423/57376/21808/18707/12571/14863/14369/18708/66923/20416/14362/14367/212398/16002/57265/21415/12018/11465/26417/14867/239985/12443/27412/26462/93897</t>
-  </si>
-  <si>
     <t>14673/16402/16421/16400/19353/19047/14186/11789/12929/12540/11848/22325/19046/109711/18643/108083/83767/13649/23805/14674/382562/16416/192897/22330/14180/219140/17886/105855/14083/224105/16419/107589/67268/19877/13367/18596/14163/320910/16404/15461/16412/18711/14268/241226/329165/227753/50884/16401/16410/16403/20779/18176/13645/54635/404710/18720/18710/20544/242687/18595/19303/11461/56443/11867/16885/20430/29875/70584/71960/16409/16408/14174/14168/17698/54126/14182/18709/12927/19684/319480/12669/22324/54004/245857/20663/18717/26396/14701/237860/30938/20130/104099/18707/19045/18708/109700/12671/22350/60595/66922/12631/232906/330662/69632/11465/12632/26417/98932/381924/214230/213788/68089</t>
   </si>
   <si>
@@ -1287,7 +1272,7 @@
     <t>11651/21803/16777/20848/11652/16151/15482/16776/15481/21939/26397/16775/16773/26399/18126/18035/66513/15980/18607/19697/12015/11689/17087/16412/11798/20846/226519/16782/16780/23928/16403/18033/26409/12371/21937/12367/11796/16154/16835/17874/14678/16772/14960/21898/21808/104709/15944/16779/26416/11797/14677/15512/14969/26417/13063/14961/16145/12774</t>
   </si>
   <si>
-    <t>21414/11651/12576/11652/16151/16001/12387/104156/19211/13557/242705/16000/13649/17246/18035/18792/19645/12914/15516/18607/18596/19697/12015/21416/12566/15461/12912/26427/18176/16842/13645/54635/18033/12913/18710/12371/56717/18595/21802/18791/14182/18709/20663/26396/208647/18707/13876/18708/231991/21415/13866/26417/12443</t>
+    <t>21414/11651/12576/11652/16151/16001/12387/19211/13557/242705/16000/13649/17246/18035/19645/12914/15516/18607/18596/19697/12015/21416/12566/15461/12912/26427/18176/16842/13645/54635/18033/12913/18710/12371/56717/18595/21802/14182/18709/20663/26396/208647/18707/18708/231991/21415/13866/26417/12443</t>
   </si>
   <si>
     <t>12842/11651/21803/11652/18749/18747/21812/12915/109689/13649/104111/18126/18035/14706/13614/20418/104110/11514/224129/11512/19697/18797/15461/12912/12825/26427/20779/14696/18176/18033/12913/18710/18127/18762/14688/12843/14693/94216/12830/12826/12827/22341/17390/18709/14697/17127/14678/14676/20663/26396/271849/11475/14701/14700/208647/14710/18707/18708/20416/14708/16476/231991/26416/14677/26417/12829/12828</t>
@@ -1311,6 +1296,9 @@
     <t>11651/21803/12576/12028/11652/16151/12929/12567/21812/13557/242705/17246/20851/18035/20418/19645/17869/208650/12394/17128/19697/12015/15461/11350/14013/18176/18033/18710/433759/18709/17127/20663/26396/271849/13016/21808/18707/12571/18708/20416/12018/26417/12443</t>
   </si>
   <si>
+    <t>15277/21857/11651/12576/20848/11652/13807/15368/16001/16337/21687/228026/11863/16000/13649/17347/18641/72508/18126/13614/11600/12914/22042/15980/19697/212032/26987/11602/13645/18033/18710/18127/56717/17000/11674/11601/13685/18709/112405/22041/22346/26396/15275/18787/21898/18707/18708/14433/112406/18655/13866/26417/16828/13806</t>
+  </si>
+  <si>
     <t>17155/17156/17308/53618/20440/240119/57170/20014/14595/53418/13200/57377/16430/13478/68292/381903/223774/107895/103534/227619/230815/140481/66789/17309/217664/57370/207958/14376/320438/227697</t>
   </si>
   <si>
@@ -1320,9 +1308,6 @@
     <t>12006/12550/21414/11651/12028/11652/11789/12387/19211/13649/23805/17869/18607/12005/12015/21416/15461/18176/16842/13645/18710/12371/18709/20663/26396/12385/18707/18708/21415/12018/13866/12386/26417/12443</t>
   </si>
   <si>
-    <t>15277/21857/11651/12576/20848/11652/13807/15368/16001/16337/21687/228026/11863/16000/13649/17347/18641/72508/18126/13614/11600/12914/22042/15980/19697/212032/26987/11602/13645/18033/18710/18127/56717/17000/11674/11601/13685/18709/112405/22041/22346/26396/15275/18787/21898/18707/18708/14433/112406/18655/13866/26417/16828/13806</t>
-  </si>
-  <si>
     <t>54325/171210/54326/74559/93747/97212/56348/15107/66775/70025/106529/83603/68801/70757/52538/170439/217698/30963/26897</t>
   </si>
   <si>
@@ -1335,15 +1320,15 @@
     <t>14673/11542/11651/19353/12028/11652/51792/11848/67260/19211/76893/20598/14360/20397/14674/18806/20773/70059/268656/71978/71949/17250/18607/19877/225849/19697/18797/15461/241447/18805/18176/18033/18710/18127/18762/269643/21937/18709/71609/73699/14678/26396/20597/13244/18707/18708/11539/14739/18754/94226/13609/74442/26416/56632/14677/21770/20698/26417/13610</t>
   </si>
   <si>
-    <t>209446/11651/19353/21803/11652/94315/12929/12540/17295/11863/12914/224105/12015/15461/18176/18710/15234/21802/70584/14388/18709/112405/23871/216805/22346/20663/26396/21808/107746/18707/18708/215449/16476/112406/26417/109905/214230</t>
-  </si>
-  <si>
     <t>11651/19353/21803/12028/20848/11652/16151/64143/12540/12567/21812/56044/13557/242705/13649/72508/19645/17128/19697/12015/20846/19730/18805/13645/18033/18710/12371/56717/21802/18709/17127/21808/18707/12571/18708/12018/13866/26417/12443</t>
   </si>
   <si>
     <t>22415/21414/13544/18749/18747/12387/14365/22411/104111/13543/13614/22418/13190/104110/14368/11514/22422/12914/224129/11512/18797/21416/15461/12912/26427/22414/18176/16842/12913/13542/93735/22421/22419/14678/22420/26396/17342/22417/14370/22423/208647/14369/14362/14367/57265/21415/14677/26417/93897</t>
   </si>
   <si>
+    <t>11651/19353/21803/11652/12929/12540/17295/11863/12914/224105/12015/15461/18176/18710/15234/21802/70584/14388/18709/112405/23871/216805/22346/20663/26396/21808/107746/18707/18708/215449/16476/112406/26417/109905/214230</t>
+  </si>
+  <si>
     <t>22415/11651/22084/20869/13544/20111/11652/16001/16337/11848/14365/17254/19211/22411/16000/74747/72508/14245/13543/22418/14368/22422/18607/71718/16973/15461/74370/268933/26987/75425/22414/18176/18710/230784/56717/13542/93735/22421/22419/16974/110379/21937/13685/18709/319481/216805/22420/20663/26396/216742/22417/14370/22423/18707/20539/14369/18708/252875/14362/14367/320311/268706/57265/78757/16367/75705/329679/26417/93897</t>
   </si>
   <si>
@@ -1398,12 +1383,12 @@
     <t>20682/11651/19353/11652/19047/18749/18747/98660/11848/22325/19046/67972/11540/15166/104111/14813/18806/18035/14634/238871/104110/11514/19013/223864/12914/224129/11512/19877/106952/19697/12015/14632/14802/12912/15562/14810/26427/18805/18033/12913/18578/18710/15565/20544/11517/11941/13617/333329/18709/330953/14678/12669/18018/11928/22324/26396/11705/20605/21954/20130/208647/18707/19045/232975/12638/11932/18708/11539/243270/109305/215449/16476/231991/66922/14677/19049/26417/58991/15245/98932/17356/109905/15552</t>
   </si>
   <si>
+    <t>235339/15277/13807/78920/12974/17448/235582/18641/18293/20425/56421/66945/239017/21881/11429/76282/74147/110460/107029/107272/104174/18563/72141/108037/93747/21351/97212/212032/15926/66646/68738/60525/11428/110208/100198/17769/257635/231691/109264/11674/14719/66171/18746/434437/18642/225913/14751/15275/110821/236539/19895/14433/18655/13806</t>
+  </si>
+  <si>
     <t>13121/14137/20775/73166/20652/15490/13595/18194/66234/235293/16987/74754/13360</t>
   </si>
   <si>
-    <t>235339/15277/13807/78920/12974/17448/235582/18641/18293/20425/56421/66945/239017/21881/11429/76282/74147/110460/107029/107272/104174/18563/72141/108037/93747/21351/97212/212032/15926/66646/68738/60525/11428/110208/100198/17769/257635/231691/109264/11674/14719/66171/18746/434437/18642/225913/14751/15275/110821/236539/19895/14433/18655/13806</t>
-  </si>
-  <si>
     <t>28169/110524/11671/235582/14245/67216/110197/68262/14732/14933/56752/67512/64899/67916/69923/67800/52123/102247/23945/55979/225913/72535/320127/218121/104418/116939/215456/50784/110695/225010/227333</t>
   </si>
   <si>
@@ -1623,12 +1608,12 @@
     <t>mmu04921</t>
   </si>
   <si>
+    <t>mmu04146</t>
+  </si>
+  <si>
     <t>mmu04720</t>
   </si>
   <si>
-    <t>mmu04146</t>
-  </si>
-  <si>
     <t>mmu03022</t>
   </si>
   <si>
@@ -1644,18 +1629,18 @@
     <t>mmu04730</t>
   </si>
   <si>
+    <t>mmu04727</t>
+  </si>
+  <si>
+    <t>mmu04114</t>
+  </si>
+  <si>
+    <t>mmu04130</t>
+  </si>
+  <si>
     <t>mmu03018</t>
   </si>
   <si>
-    <t>mmu04727</t>
-  </si>
-  <si>
-    <t>mmu04130</t>
-  </si>
-  <si>
-    <t>mmu04114</t>
-  </si>
-  <si>
     <t>mmu04261</t>
   </si>
   <si>
@@ -1776,12 +1761,12 @@
     <t>Oxytocin signaling pathway</t>
   </si>
   <si>
+    <t>Peroxisome</t>
+  </si>
+  <si>
     <t>Long-term potentiation</t>
   </si>
   <si>
-    <t>Peroxisome</t>
-  </si>
-  <si>
     <t>Basal transcription factors</t>
   </si>
   <si>
@@ -1797,18 +1782,18 @@
     <t>Long-term depression</t>
   </si>
   <si>
+    <t>GABAergic synapse</t>
+  </si>
+  <si>
+    <t>Oocyte meiosis</t>
+  </si>
+  <si>
+    <t>SNARE interactions in vesicular transport</t>
+  </si>
+  <si>
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>GABAergic synapse</t>
-  </si>
-  <si>
-    <t>SNARE interactions in vesicular transport</t>
-  </si>
-  <si>
-    <t>Oocyte meiosis</t>
-  </si>
-  <si>
     <t>Adrenergic signaling in cardiomyocytes</t>
   </si>
   <si>
@@ -1860,223 +1845,226 @@
     <t>GnRH signaling pathway</t>
   </si>
   <si>
-    <t>90/2906</t>
-  </si>
-  <si>
-    <t>91/2906</t>
-  </si>
-  <si>
-    <t>105/2906</t>
-  </si>
-  <si>
-    <t>93/2906</t>
-  </si>
-  <si>
-    <t>111/2906</t>
-  </si>
-  <si>
-    <t>89/2906</t>
-  </si>
-  <si>
-    <t>101/2906</t>
-  </si>
-  <si>
-    <t>62/2906</t>
-  </si>
-  <si>
-    <t>52/2906</t>
-  </si>
-  <si>
-    <t>34/2906</t>
-  </si>
-  <si>
-    <t>47/2906</t>
-  </si>
-  <si>
-    <t>25/2906</t>
-  </si>
-  <si>
-    <t>32/2906</t>
-  </si>
-  <si>
-    <t>71/2906</t>
-  </si>
-  <si>
-    <t>75/2906</t>
-  </si>
-  <si>
-    <t>78/2906</t>
-  </si>
-  <si>
-    <t>97/2906</t>
-  </si>
-  <si>
-    <t>55/2906</t>
-  </si>
-  <si>
-    <t>57/2906</t>
-  </si>
-  <si>
-    <t>88/2906</t>
-  </si>
-  <si>
-    <t>29/2906</t>
-  </si>
-  <si>
-    <t>81/2906</t>
-  </si>
-  <si>
-    <t>41/2906</t>
-  </si>
-  <si>
-    <t>49/2906</t>
-  </si>
-  <si>
-    <t>86/2906</t>
-  </si>
-  <si>
-    <t>122/2906</t>
-  </si>
-  <si>
-    <t>69/2906</t>
-  </si>
-  <si>
-    <t>56/2906</t>
-  </si>
-  <si>
-    <t>26/2906</t>
-  </si>
-  <si>
-    <t>36/2906</t>
-  </si>
-  <si>
-    <t>46/2906</t>
-  </si>
-  <si>
-    <t>48/2906</t>
-  </si>
-  <si>
-    <t>22/2906</t>
-  </si>
-  <si>
-    <t>60/2906</t>
-  </si>
-  <si>
-    <t>73/2906</t>
-  </si>
-  <si>
-    <t>85/2906</t>
-  </si>
-  <si>
-    <t>120/2906</t>
-  </si>
-  <si>
-    <t>15/2906</t>
-  </si>
-  <si>
-    <t>17/2906</t>
-  </si>
-  <si>
-    <t>63/2906</t>
-  </si>
-  <si>
-    <t>43/2906</t>
-  </si>
-  <si>
-    <t>33/2906</t>
-  </si>
-  <si>
-    <t>58/2906</t>
-  </si>
-  <si>
-    <t>35/2906</t>
-  </si>
-  <si>
-    <t>66/2906</t>
-  </si>
-  <si>
-    <t>123/2906</t>
-  </si>
-  <si>
-    <t>19/2906</t>
-  </si>
-  <si>
-    <t>18/2906</t>
-  </si>
-  <si>
-    <t>83/2906</t>
-  </si>
-  <si>
-    <t>144/8114</t>
-  </si>
-  <si>
-    <t>194/8114</t>
-  </si>
-  <si>
-    <t>150/8114</t>
-  </si>
-  <si>
-    <t>177/8114</t>
-  </si>
-  <si>
-    <t>98/8114</t>
-  </si>
-  <si>
-    <t>46/8114</t>
-  </si>
-  <si>
-    <t>31/8114</t>
-  </si>
-  <si>
-    <t>133/8114</t>
-  </si>
-  <si>
-    <t>140/8114</t>
-  </si>
-  <si>
-    <t>183/8114</t>
-  </si>
-  <si>
-    <t>84/8114</t>
-  </si>
-  <si>
-    <t>102/8114</t>
-  </si>
-  <si>
-    <t>51/8114</t>
-  </si>
-  <si>
-    <t>88/8114</t>
-  </si>
-  <si>
-    <t>33/8114</t>
-  </si>
-  <si>
-    <t>116/8114</t>
-  </si>
-  <si>
-    <t>178/8114</t>
-  </si>
-  <si>
-    <t>35/8114</t>
-  </si>
-  <si>
-    <t>114/8114</t>
-  </si>
-  <si>
-    <t>113/8114</t>
-  </si>
-  <si>
-    <t>68/8114</t>
-  </si>
-  <si>
-    <t>285/8114</t>
-  </si>
-  <si>
-    <t>30/8114</t>
-  </si>
-  <si>
-    <t>186/8114</t>
+    <t>90/2894</t>
+  </si>
+  <si>
+    <t>91/2894</t>
+  </si>
+  <si>
+    <t>105/2894</t>
+  </si>
+  <si>
+    <t>93/2894</t>
+  </si>
+  <si>
+    <t>111/2894</t>
+  </si>
+  <si>
+    <t>89/2894</t>
+  </si>
+  <si>
+    <t>101/2894</t>
+  </si>
+  <si>
+    <t>62/2894</t>
+  </si>
+  <si>
+    <t>52/2894</t>
+  </si>
+  <si>
+    <t>34/2894</t>
+  </si>
+  <si>
+    <t>47/2894</t>
+  </si>
+  <si>
+    <t>25/2894</t>
+  </si>
+  <si>
+    <t>32/2894</t>
+  </si>
+  <si>
+    <t>71/2894</t>
+  </si>
+  <si>
+    <t>75/2894</t>
+  </si>
+  <si>
+    <t>78/2894</t>
+  </si>
+  <si>
+    <t>97/2894</t>
+  </si>
+  <si>
+    <t>55/2894</t>
+  </si>
+  <si>
+    <t>57/2894</t>
+  </si>
+  <si>
+    <t>88/2894</t>
+  </si>
+  <si>
+    <t>29/2894</t>
+  </si>
+  <si>
+    <t>81/2894</t>
+  </si>
+  <si>
+    <t>49/2894</t>
+  </si>
+  <si>
+    <t>41/2894</t>
+  </si>
+  <si>
+    <t>86/2894</t>
+  </si>
+  <si>
+    <t>122/2894</t>
+  </si>
+  <si>
+    <t>69/2894</t>
+  </si>
+  <si>
+    <t>56/2894</t>
+  </si>
+  <si>
+    <t>26/2894</t>
+  </si>
+  <si>
+    <t>36/2894</t>
+  </si>
+  <si>
+    <t>48/2894</t>
+  </si>
+  <si>
+    <t>60/2894</t>
+  </si>
+  <si>
+    <t>22/2894</t>
+  </si>
+  <si>
+    <t>45/2894</t>
+  </si>
+  <si>
+    <t>73/2894</t>
+  </si>
+  <si>
+    <t>85/2894</t>
+  </si>
+  <si>
+    <t>120/2894</t>
+  </si>
+  <si>
+    <t>15/2894</t>
+  </si>
+  <si>
+    <t>17/2894</t>
+  </si>
+  <si>
+    <t>63/2894</t>
+  </si>
+  <si>
+    <t>43/2894</t>
+  </si>
+  <si>
+    <t>33/2894</t>
+  </si>
+  <si>
+    <t>58/2894</t>
+  </si>
+  <si>
+    <t>35/2894</t>
+  </si>
+  <si>
+    <t>66/2894</t>
+  </si>
+  <si>
+    <t>123/2894</t>
+  </si>
+  <si>
+    <t>19/2894</t>
+  </si>
+  <si>
+    <t>18/2894</t>
+  </si>
+  <si>
+    <t>83/2894</t>
+  </si>
+  <si>
+    <t>144/8092</t>
+  </si>
+  <si>
+    <t>194/8092</t>
+  </si>
+  <si>
+    <t>150/8092</t>
+  </si>
+  <si>
+    <t>177/8092</t>
+  </si>
+  <si>
+    <t>98/8092</t>
+  </si>
+  <si>
+    <t>46/8092</t>
+  </si>
+  <si>
+    <t>31/8092</t>
+  </si>
+  <si>
+    <t>133/8092</t>
+  </si>
+  <si>
+    <t>140/8092</t>
+  </si>
+  <si>
+    <t>183/8092</t>
+  </si>
+  <si>
+    <t>67/8092</t>
+  </si>
+  <si>
+    <t>102/8092</t>
+  </si>
+  <si>
+    <t>51/8092</t>
+  </si>
+  <si>
+    <t>88/8092</t>
+  </si>
+  <si>
+    <t>116/8092</t>
+  </si>
+  <si>
+    <t>33/8092</t>
+  </si>
+  <si>
+    <t>82/8092</t>
+  </si>
+  <si>
+    <t>178/8092</t>
+  </si>
+  <si>
+    <t>35/8092</t>
+  </si>
+  <si>
+    <t>114/8092</t>
+  </si>
+  <si>
+    <t>113/8092</t>
+  </si>
+  <si>
+    <t>68/8092</t>
+  </si>
+  <si>
+    <t>285/8092</t>
+  </si>
+  <si>
+    <t>30/8092</t>
+  </si>
+  <si>
+    <t>186/8092</t>
   </si>
   <si>
     <t>12858/66925/11950/27060/69875/68198/66043/66144/68349/11944/11966/67680/11972/226646/17991/12864/11974/67126/12867/11973/75406/66594/73834/67530/17993/66335/66218/67130/66445/68194/11957/28080/68202/72900/20463/66237/67264/12869/11949/66495/67273/68375/66046/74776/17992/68197/12862/70316/67003/104130/66142/12857/12866/108664/66916/71679/12868/67184/110323/66377/66694/57423/27425/66290/76252/68342/407790/12861/66416/22272/12856/78174/11958/333182/11964/66052/66152/225887/12859/67942/66576/17716/17717/17708/17719/17721/17722/17711/230075/12865</t>
@@ -2148,12 +2136,12 @@
     <t>110157/12313/12297/26395/11515/17260/241113/13712/56808/12289/12298/12300/232807/12315/17931/432530/30955/19878/12295/320207/14281/20191/210044/12325/12294/19057/54720/12575/12322/14682/19735/16519/14683/18160/54195/19055/230103/108079/108099/207565/19079/16438/16653/52163/20190/11513/14681/75600/19058/12314/16524/12326/108097/227541/18798/18796/12293/140723/234889/16440/16522/238564/18430/329502/105787/18750/18795/12288/18751/108058/20192/12323/12296/211480/26413/54376/19082/81904/329251/18752/211429</t>
   </si>
   <si>
+    <t>224824/74114/71382/208982/235674/19193/103737/56535/18634/72129/11430/23986/93732/56794/13850/28200/17117/93734/20655/22436/67993/54683/433256/111175/16922/12908/12359/18633/26458/58869/18632/20280/18477/56273/668173/80911/19301/76263/330450/269951/18631/67420/67528/26378/19302/51798/70503/74043/17527</t>
+  </si>
+  <si>
     <t>110157/11836/12313/109880/14814/26395/12315/14816/432530/14799/12325/19057/20112/12322/14682/67071/19055/16438/14812/16653/110651/75600/19058/14800/12314/12326/18798/18796/11911/16440/108071/18750/18795/12288/18751/108058/328572/12323/14811/26413/18752</t>
   </si>
   <si>
-    <t>224824/74114/71382/208982/235674/19193/103737/56535/18634/72129/11430/23986/93732/56794/13850/28200/17117/93734/20655/22436/67993/54683/433256/111175/16922/12908/12359/18633/26458/58869/18632/20280/18477/56273/668173/80911/19301/76263/330450/269951/18631/67420/67528/26378/19302/51798/70503/74043/17527</t>
-  </si>
-  <si>
     <t>99683/20832/26400/27103/22230/56085/81489/94232/70377/54197/116891/66530/140740/216080/22027/20224/66753/26420/193670/22433/71853/78943/67128/20338/20334/13665/110616/15519/59007/50527/26419/100037258/13135/56438/140499/50873/19106/74126/12333/13198/18415/57743/12364/226641/13418/14828/22030/66861/14827/386649/69276/56228/12017/18786/15505/26965/103963/56445/64209/12955/21402/77371/105245/69608/22393/80286/56424/17872/70361/66435/213539/11911/66967/26414/216197/270669/54609/67475/12043/66245/26408/75744/109815/15511/56550/193740</t>
   </si>
   <si>
@@ -2178,16 +2166,16 @@
     <t>110157/11836/53623/109880/19051/26395/19053/12921/14816/19052/14799/14682/14683/54195/19092/18125/16438/16653/20190/14681/14800/12286/14672/18798/18796/234889/16440/12918/329502/18750/18795/18751/19091/26413/18752/211429</t>
   </si>
   <si>
-    <t>57316/103135/27756/230721/72198/50912/72068/71701/69125/75901/15526/70640/66446/15510/69639/72162/72587/18983/78651/68533/50783/69305/213550/24127/72662/67678/109075/66583/232791/319885/234699/214627/67207/22057/53621/319618/76522/225929/226265/78893/433182/13808/27998/66317/240023/66373</t>
-  </si>
-  <si>
     <t>14395/14405/11515/15114/14401/14394/12289/57138/56486/432530/14406/210044/67760/14409/54393/64337/14660/14645/14417/14403/14397/14400/14404/14396/57249/11513/14681/93739/66066/14402/18195/12286/242425/14702/16522/216456/268566/18750/12288/18751/14407/110886/268860/14709/14707/14415/14704/18752</t>
   </si>
   <si>
+    <t>12313/12447/56739/26395/11515/19053/26931/54401/22629/12315/67141/12534/19052/432530/26932/210044/12325/19057/56438/29857/20112/52563/12322/13006/20874/66156/12234/12877/67071/226849/12235/19055/12448/52206/59008/26965/56150/16438/110651/11513/18667/12442/75600/19058/69010/21402/12314/68999/69957/231207/24061/268697/16440/11835/70891/108058/12323/105988/26413/66440</t>
+  </si>
+  <si>
     <t>67023/56389/53334/53331/55943/53612/224630/54399/53330/228960/20333/71116/22317/20909/56216/12068/74732/20908/22320/20955/67727/53620</t>
   </si>
   <si>
-    <t>12313/12447/56739/26395/11515/19053/26931/54401/22629/12315/67141/12534/19052/432530/26932/210044/12325/19057/56438/29857/20112/52563/12322/13006/20874/66156/12234/12877/67071/226849/12235/19055/12448/52206/59008/26965/56150/16438/110651/11513/18667/12442/75600/19058/69010/21402/12314/68999/69957/231207/24061/268697/16440/11835/70891/108058/12323/105988/26413/66440</t>
+    <t>57316/103135/27756/230721/72198/50912/72068/71701/69125/75901/15526/70640/66446/15510/69639/72162/72587/18983/78651/68533/50783/69305/213550/24127/72662/67678/109075/66583/232791/319885/234699/214627/67207/22057/53621/319618/76522/225929/78893/433182/13808/27998/66317/240023/66373</t>
   </si>
   <si>
     <t>12313/12297/11515/16535/19053/56808/12289/12298/26931/12300/20266/12315/23797/19052/432530/30955/12295/320207/59032/26932/20191/210044/12325/12294/29857/72930/12322/14682/21956/381290/11931/226849/11909/14683/22004/11938/320707/11513/75600/22003/11933/20272/11554/12314/18798/18796/12293/140723/17888/52432/11911/235542/11555/399548/56508/18750/18795/12288/19094/108058/20541/12043/12323/12296/11936/17896/26413/12916/54376/11609/81904/21924/19054</t>
@@ -2354,25 +2342,25 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F2" t="n">
-        <v>6.536630737066096E-19</v>
+        <v>6.276502200036977E-19</v>
       </c>
       <c r="G2" t="n">
-        <v>1.980599113331027E-16</v>
+        <v>1.8955036644111672E-16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.1077868933343595E-16</v>
+        <v>1.0637019517957405E-16</v>
       </c>
       <c r="I2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="J2" t="n">
         <v>123.0</v>
@@ -2386,25 +2374,25 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5436030584196801E-18</v>
+        <v>1.461351955910039E-18</v>
       </c>
       <c r="G3" t="n">
-        <v>2.3385586335058155E-16</v>
+        <v>2.2066414534241589E-16</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3080004863450974E-16</v>
+        <v>1.2383034994816646E-16</v>
       </c>
       <c r="I3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="J3" t="n">
         <v>188.0</v>
@@ -2418,25 +2406,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F4" t="n">
-        <v>6.938151006373018E-17</v>
+        <v>6.565146122081398E-17</v>
       </c>
       <c r="G4" t="n">
-        <v>7.007532516436748E-15</v>
+        <v>6.6089137628952746E-15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.919446708863354E-15</v>
+        <v>3.7087316689652814E-15</v>
       </c>
       <c r="I4" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="J4" t="n">
         <v>202.0</v>
@@ -2450,25 +2438,25 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F5" t="n">
-        <v>2.2805378845391125E-15</v>
+        <v>2.210299313579434E-15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7275074475383777E-13</v>
+        <v>1.6687759817524726E-13</v>
       </c>
       <c r="H5" t="n">
-        <v>9.662278931863083E-14</v>
+        <v>9.364689197007603E-14</v>
       </c>
       <c r="I5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J5" t="n">
         <v>96.0</v>
@@ -2482,25 +2470,25 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F6" t="n">
-        <v>3.677153173668358E-14</v>
+        <v>3.60455730444536E-14</v>
       </c>
       <c r="G6" t="n">
-        <v>2.228354823243025E-12</v>
+        <v>2.1771526118849974E-12</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2463613914960121E-12</v>
+        <v>1.2217552126646381E-12</v>
       </c>
       <c r="I6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J6" t="n">
         <v>54.0</v>
@@ -2514,25 +2502,25 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F7" t="n">
-        <v>1.3251713012088542E-13</v>
+        <v>1.2976186316884036E-13</v>
       </c>
       <c r="G7" t="n">
-        <v>6.692115071104714E-12</v>
+        <v>6.5313471128316316E-12</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7430277104320274E-12</v>
+        <v>3.66520350354093E-12</v>
       </c>
       <c r="I7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J7" t="n">
         <v>59.0</v>
@@ -2546,25 +2534,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F8" t="n">
-        <v>2.8537638723997365E-13</v>
+        <v>2.7599240385505206E-13</v>
       </c>
       <c r="G8" t="n">
-        <v>1.2352720761958859E-11</v>
+        <v>1.1907100852032246E-11</v>
       </c>
       <c r="H8" t="n">
-        <v>6.90911253317831E-12</v>
+        <v>6.681921356490734E-12</v>
       </c>
       <c r="I8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="J8" t="n">
         <v>115.0</v>
@@ -2578,25 +2566,25 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E9" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F9" t="n">
-        <v>6.47823341724476E-12</v>
+        <v>6.346657561350689E-12</v>
       </c>
       <c r="G9" t="n">
-        <v>2.453630906781453E-10</v>
+        <v>2.395863229409885E-10</v>
       </c>
       <c r="H9" t="n">
-        <v>1.3723626054952717E-10</v>
+        <v>1.3444892991808697E-10</v>
       </c>
       <c r="I9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="J9" t="n">
         <v>61.0</v>
@@ -2610,25 +2598,25 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F10" t="n">
-        <v>2.797458607614543E-11</v>
+        <v>2.6877511739808044E-11</v>
       </c>
       <c r="G10" t="n">
-        <v>9.418110645635627E-10</v>
+        <v>9.018898383802256E-10</v>
       </c>
       <c r="H10" t="n">
-        <v>5.26772907398762E-10</v>
+        <v>5.061145485507714E-10</v>
       </c>
       <c r="I10" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="J10" t="n">
         <v>167.0</v>
@@ -2642,25 +2630,25 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F11" t="n">
-        <v>3.732812784956438E-11</v>
+        <v>3.6312712986597894E-11</v>
       </c>
       <c r="G11" t="n">
-        <v>1.1310422738418007E-9</v>
+        <v>1.0966439321952565E-9</v>
       </c>
       <c r="H11" t="n">
-        <v>6.326135351347227E-10</v>
+        <v>6.15404925351817E-10</v>
       </c>
       <c r="I11" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J11" t="n">
         <v>97.0</v>
@@ -2674,28 +2662,28 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F12" t="n">
-        <v>9.012466676513168E-11</v>
+        <v>1.378697679152287E-10</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4825249118031726E-9</v>
+        <v>3.785151810036278E-9</v>
       </c>
       <c r="H12" t="n">
-        <v>1.3885235740848038E-9</v>
+        <v>2.1241179554403657E-9</v>
       </c>
       <c r="I12" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="J12" t="n">
-        <v>94.0</v>
+        <v>112.0</v>
       </c>
     </row>
     <row r="13">
@@ -2706,28 +2694,28 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F13" t="n">
-        <v>1.420218552547672E-10</v>
+        <v>2.0851539591417849E-10</v>
       </c>
       <c r="G13" t="n">
-        <v>3.5860518451828717E-9</v>
+        <v>5.01612685816085E-9</v>
       </c>
       <c r="H13" t="n">
-        <v>2.0057472540366244E-9</v>
+        <v>2.8149056262248063E-9</v>
       </c>
       <c r="I13" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J13" t="n">
-        <v>112.0</v>
+        <v>85.0</v>
       </c>
     </row>
     <row r="14">
@@ -2738,28 +2726,28 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E14" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F14" t="n">
-        <v>2.1367634274082727E-10</v>
+        <v>2.1592599058308294E-10</v>
       </c>
       <c r="G14" t="n">
-        <v>4.834769888941463E-9</v>
+        <v>5.01612685816085E-9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7041790936931587E-9</v>
+        <v>2.8149056262248063E-9</v>
       </c>
       <c r="I14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="J14" t="n">
-        <v>85.0</v>
+        <v>139.0</v>
       </c>
     </row>
     <row r="15">
@@ -2770,28 +2758,28 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F15" t="n">
-        <v>2.233887077398696E-10</v>
+        <v>9.900264734089955E-9</v>
       </c>
       <c r="G15" t="n">
-        <v>4.834769888941463E-9</v>
+        <v>2.1356285354965475E-7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.7041790936931587E-9</v>
+        <v>1.1984530993898368E-7</v>
       </c>
       <c r="I15" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J15" t="n">
-        <v>139.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="16">
@@ -2802,28 +2790,28 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E16" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F16" t="n">
-        <v>1.0039884314877242E-8</v>
+        <v>2.164854252429837E-8</v>
       </c>
       <c r="G16" t="n">
-        <v>2.0280566316052028E-7</v>
+        <v>4.358573228225405E-7</v>
       </c>
       <c r="H16" t="n">
-        <v>1.1343307892598149E-7</v>
+        <v>2.4459055062540617E-7</v>
       </c>
       <c r="I16" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="J16" t="n">
-        <v>42.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="17">
@@ -2834,25 +2822,25 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E17" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F17" t="n">
-        <v>2.2103247415998837E-8</v>
+        <v>7.039419303112592E-8</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1858024794047797E-7</v>
+        <v>1.3286903934625017E-6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.3411992328788243E-7</v>
+        <v>7.456227025007417E-7</v>
       </c>
       <c r="I17" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J17" t="n">
         <v>77.0</v>
@@ -2866,28 +2854,28 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="E18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F18" t="n">
-        <v>7.182981160012225E-8</v>
+        <v>1.0328136651761816E-7</v>
       </c>
       <c r="G18" t="n">
-        <v>1.2802607596962966E-6</v>
+        <v>1.8347630993129815E-6</v>
       </c>
       <c r="H18" t="n">
-        <v>7.160742828247481E-7</v>
+        <v>1.0296160996493203E-6</v>
       </c>
       <c r="I18" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="J18" t="n">
-        <v>77.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="19">
@@ -2898,28 +2886,28 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F19" t="n">
-        <v>1.0492752694857878E-7</v>
+        <v>1.1164174969457832E-7</v>
       </c>
       <c r="G19" t="n">
-        <v>1.7662800369677427E-6</v>
+        <v>1.8731004670979253E-6</v>
       </c>
       <c r="H19" t="n">
-        <v>9.879141426152739E-7</v>
+        <v>1.0511299240249772E-6</v>
       </c>
       <c r="I19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="J19" t="n">
-        <v>54.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="20">
@@ -2930,28 +2918,28 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E20" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1348351832598265E-7</v>
+        <v>1.657149793211376E-7</v>
       </c>
       <c r="G20" t="n">
-        <v>1.8097634764617235E-6</v>
+        <v>2.6339959871043977E-6</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0122352604145822E-6</v>
+        <v>1.4781225302328617E-6</v>
       </c>
       <c r="I20" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="J20" t="n">
-        <v>57.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="21">
@@ -2962,28 +2950,28 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E21" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F21" t="n">
-        <v>1.6805669147200818E-7</v>
+        <v>2.241104690387362E-7</v>
       </c>
       <c r="G21" t="n">
-        <v>2.546058875800924E-6</v>
+        <v>3.384068082484916E-6</v>
       </c>
       <c r="H21" t="n">
-        <v>1.4240593329996483E-6</v>
+        <v>1.8990413429071856E-6</v>
       </c>
       <c r="I21" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="J21" t="n">
-        <v>46.0</v>
+        <v>72.0</v>
       </c>
     </row>
     <row r="22">
@@ -2994,28 +2982,28 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E22" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F22" t="n">
-        <v>2.2834828786732646E-7</v>
+        <v>5.939706089207238E-7</v>
       </c>
       <c r="G22" t="n">
-        <v>3.2947395820857106E-6</v>
+        <v>8.54186304257422E-6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.8428107441924592E-6</v>
+        <v>4.793447019360227E-6</v>
       </c>
       <c r="I22" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J22" t="n">
-        <v>72.0</v>
+        <v>75.0</v>
       </c>
     </row>
     <row r="23">
@@ -3026,28 +3014,28 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F23" t="n">
-        <v>6.051805395689014E-7</v>
+        <v>6.324802857898924E-7</v>
       </c>
       <c r="G23" t="n">
-        <v>8.334986522244415E-6</v>
+        <v>8.68222937766125E-6</v>
       </c>
       <c r="H23" t="n">
-        <v>4.6619170751479966E-6</v>
+        <v>4.872216555606348E-6</v>
       </c>
       <c r="I23" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="J23" t="n">
-        <v>75.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="24">
@@ -3058,28 +3046,28 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D24" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E24" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F24" t="n">
-        <v>6.452028244655311E-7</v>
+        <v>9.208326103606348E-7</v>
       </c>
       <c r="G24" t="n">
-        <v>8.499845904915475E-6</v>
+        <v>1.209093253603964E-5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.7541260750091765E-6</v>
+        <v>6.785082392130994E-6</v>
       </c>
       <c r="I24" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="J24" t="n">
-        <v>83.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="25">
@@ -3090,28 +3078,28 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E25" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F25" t="n">
-        <v>9.372249626073428E-7</v>
+        <v>1.323806101006409E-6</v>
       </c>
       <c r="G25" t="n">
-        <v>1.1832465152917702E-5</v>
+        <v>1.665789343766398E-5</v>
       </c>
       <c r="H25" t="n">
-        <v>6.618123639464132E-6</v>
+        <v>9.347929046580344E-6</v>
       </c>
       <c r="I25" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J25" t="n">
-        <v>70.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="26">
@@ -3122,28 +3110,28 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E26" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F26" t="n">
-        <v>1.3444175575463405E-6</v>
+        <v>1.3993560090411703E-6</v>
       </c>
       <c r="G26" t="n">
-        <v>1.6294340797461645E-5</v>
+        <v>1.690422058921734E-5</v>
       </c>
       <c r="H26" t="n">
-        <v>9.113735863787824E-6</v>
+        <v>9.486160734973829E-6</v>
       </c>
       <c r="I26" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J26" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="27">
@@ -3154,28 +3142,28 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E27" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F27" t="n">
-        <v>1.9004663792063736E-6</v>
+        <v>2.1023594192124183E-6</v>
       </c>
       <c r="G27" t="n">
-        <v>2.2147742803828124E-5</v>
+        <v>2.4419713253928858E-5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.2387655346243976E-5</v>
+        <v>1.3703638319562728E-5</v>
       </c>
       <c r="I27" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="J27" t="n">
-        <v>53.0</v>
+        <v>67.0</v>
       </c>
     </row>
     <row r="28">
@@ -3186,28 +3174,28 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F28" t="n">
-        <v>2.1377760710495106E-6</v>
+        <v>2.8145998567954415E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>2.399059813066673E-5</v>
+        <v>3.1481820620452713E-5</v>
       </c>
       <c r="H28" t="n">
-        <v>1.3418399510291276E-5</v>
+        <v>1.766668915961271E-5</v>
       </c>
       <c r="I28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="J28" t="n">
-        <v>67.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="29">
@@ -3218,28 +3206,28 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F29" t="n">
-        <v>2.841497256029521E-6</v>
+        <v>5.5152470328679365E-6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.074905959203374E-5</v>
+        <v>5.9485878711647035E-5</v>
       </c>
       <c r="H29" t="n">
-        <v>1.7198536023336574E-5</v>
+        <v>3.338175835683225E-5</v>
       </c>
       <c r="I29" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="J29" t="n">
-        <v>29.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="30">
@@ -3250,28 +3238,28 @@
         <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E30" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F30" t="n">
-        <v>5.629592076545702E-6</v>
+        <v>7.438585546512564E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>5.8819531006667165E-5</v>
+        <v>7.746389086368256E-5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.28988865453306E-5</v>
+        <v>4.347049992698813E-5</v>
       </c>
       <c r="I30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="J30" t="n">
-        <v>98.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="31">
@@ -3282,28 +3270,28 @@
         <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="E31" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F31" t="n">
-        <v>7.549017298324717E-6</v>
+        <v>7.74056874082542E-6</v>
       </c>
       <c r="G31" t="n">
-        <v>7.624507471307964E-5</v>
+        <v>7.792172532430923E-5</v>
       </c>
       <c r="H31" t="n">
-        <v>4.2645325790536126E-5</v>
+        <v>4.372742341308395E-5</v>
       </c>
       <c r="I31" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="J31" t="n">
-        <v>59.0</v>
+        <v>119.0</v>
       </c>
     </row>
     <row r="32">
@@ -3314,28 +3302,28 @@
         <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E32" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F32" t="n">
-        <v>7.919477390224641E-6</v>
+        <v>8.346678222116866E-6</v>
       </c>
       <c r="G32" t="n">
-        <v>7.740650481413117E-5</v>
+        <v>8.131280074449335E-5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.329493581752691E-5</v>
+        <v>4.5630397071674554E-5</v>
       </c>
       <c r="I32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="J32" t="n">
-        <v>119.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="33">
@@ -3346,28 +3334,28 @@
         <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E33" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F33" t="n">
-        <v>8.465994123811572E-6</v>
+        <v>1.2823802792180472E-5</v>
       </c>
       <c r="G33" t="n">
-        <v>8.016238185984082E-5</v>
+        <v>1.210246388512032E-4</v>
       </c>
       <c r="H33" t="n">
-        <v>4.4836350458344185E-5</v>
+        <v>6.791553452437684E-5</v>
       </c>
       <c r="I33" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="J33" t="n">
-        <v>56.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="34">
@@ -3378,28 +3366,28 @@
         <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F34" t="n">
-        <v>1.2975863737058736E-5</v>
+        <v>1.639122798251003E-5</v>
       </c>
       <c r="G34" t="n">
-        <v>1.1914202158572112E-4</v>
+        <v>1.4802973444955517E-4</v>
       </c>
       <c r="H34" t="n">
-        <v>6.663840707070037E-5</v>
+        <v>8.307001480090062E-5</v>
       </c>
       <c r="I34" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="J34" t="n">
-        <v>43.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="35">
@@ -3410,25 +3398,25 @@
         <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F35" t="n">
-        <v>1.731438035341027E-5</v>
+        <v>1.7155763926272952E-5</v>
       </c>
       <c r="G35" t="n">
-        <v>1.4989306420238032E-4</v>
+        <v>1.4802973444955517E-4</v>
       </c>
       <c r="H35" t="n">
-        <v>8.383805223756553E-5</v>
+        <v>8.307001480090062E-5</v>
       </c>
       <c r="I35" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="J35" t="n">
         <v>30.0</v>
@@ -3442,25 +3430,25 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F36" t="n">
-        <v>1.731438035341027E-5</v>
+        <v>1.7155763926272952E-5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.4989306420238032E-4</v>
+        <v>1.4802973444955517E-4</v>
       </c>
       <c r="H36" t="n">
-        <v>8.383805223756553E-5</v>
+        <v>8.307001480090062E-5</v>
       </c>
       <c r="I36" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="J36" t="n">
         <v>30.0</v>
@@ -3474,25 +3462,25 @@
         <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8216791281397576E-5</v>
+        <v>1.80358089327571E-5</v>
       </c>
       <c r="G37" t="n">
-        <v>1.5332465995176293E-4</v>
+        <v>1.51300397158129E-4</v>
       </c>
       <c r="H37" t="n">
-        <v>8.57574092486845E-5</v>
+        <v>8.490541632087407E-5</v>
       </c>
       <c r="I37" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="J37" t="n">
         <v>34.0</v>
@@ -3506,28 +3494,28 @@
         <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F38" t="n">
-        <v>2.3580247829913405E-5</v>
+        <v>3.8462601045392E-5</v>
       </c>
       <c r="G38" t="n">
-        <v>1.931031106071287E-4</v>
+        <v>3.1393798691103735E-4</v>
       </c>
       <c r="H38" t="n">
-        <v>1.0800625606304576E-4</v>
+        <v>1.7617293793195196E-4</v>
       </c>
       <c r="I38" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="J38" t="n">
-        <v>54.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="39">
@@ -3538,28 +3526,28 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D39" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F39" t="n">
-        <v>3.8715262396041904E-5</v>
+        <v>5.1547220496929397E-5</v>
       </c>
       <c r="G39" t="n">
-        <v>3.0870327647370256E-4</v>
+        <v>4.0966475237033364E-4</v>
       </c>
       <c r="H39" t="n">
-        <v>1.726636356166966E-4</v>
+        <v>2.2989203601123638E-4</v>
       </c>
       <c r="I39" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="J39" t="n">
-        <v>19.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="40">
@@ -3570,28 +3558,28 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F40" t="n">
-        <v>5.252811088455499E-5</v>
+        <v>6.292103510363752E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>4.0810301533385034E-4</v>
+        <v>4.872346820845777E-4</v>
       </c>
       <c r="H40" t="n">
-        <v>2.2825980708268164E-4</v>
+        <v>2.73422041880854E-4</v>
       </c>
       <c r="I40" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="J40" t="n">
-        <v>100.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="41">
@@ -3602,28 +3590,28 @@
         <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F41" t="n">
-        <v>6.372930497535686E-5</v>
+        <v>7.13154256455109E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>4.827494851883282E-4</v>
+        <v>5.384314636236072E-4</v>
       </c>
       <c r="H41" t="n">
-        <v>2.7001100265874883E-4</v>
+        <v>3.021521981296646E-4</v>
       </c>
       <c r="I41" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="J41" t="n">
-        <v>54.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="42">
@@ -3634,28 +3622,28 @@
         <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F42" t="n">
-        <v>7.22781515703612E-5</v>
+        <v>1.7636039559627985E-4</v>
       </c>
       <c r="G42" t="n">
-        <v>5.341531689224255E-4</v>
+        <v>0.0012990448651238175</v>
       </c>
       <c r="H42" t="n">
-        <v>2.9876206425746225E-4</v>
+        <v>7.289864875738397E-4</v>
       </c>
       <c r="I42" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="J42" t="n">
-        <v>59.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="43">
@@ -3666,28 +3654,28 @@
         <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1307691351471258E-4</v>
+        <v>1.9081391266927912E-4</v>
       </c>
       <c r="G43" t="n">
-        <v>8.157691617847122E-4</v>
+        <v>0.0013720428958600547</v>
       </c>
       <c r="H43" t="n">
-        <v>4.562752650593666E-4</v>
+        <v>7.699508756830563E-4</v>
       </c>
       <c r="I43" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="J43" t="n">
-        <v>37.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="44">
@@ -3698,28 +3686,28 @@
         <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D44" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F44" t="n">
-        <v>1.7811561469350433E-4</v>
+        <v>2.2745837282032264E-4</v>
       </c>
       <c r="G44" t="n">
-        <v>0.001255093750049577</v>
+        <v>0.0015974983393427311</v>
       </c>
       <c r="H44" t="n">
-        <v>7.019978938960637E-4</v>
+        <v>8.964699638695704E-4</v>
       </c>
       <c r="I44" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="J44" t="n">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
     </row>
     <row r="45">
@@ -3730,28 +3718,28 @@
         <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="F45" t="n">
-        <v>1.9299701418464438E-4</v>
+        <v>2.7297433671757E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>0.001329047620407892</v>
+        <v>0.0018735965838342303</v>
       </c>
       <c r="H45" t="n">
-        <v>7.433617053523384E-4</v>
+        <v>0.0010514083304193486</v>
       </c>
       <c r="I45" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="J45" t="n">
-        <v>49.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="46">
@@ -3762,28 +3750,28 @@
         <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E46" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F46" t="n">
-        <v>2.7675517474016147E-4</v>
+        <v>2.970515544430565E-4</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0018634848432504205</v>
+        <v>0.001993545987595624</v>
       </c>
       <c r="H46" t="n">
-        <v>0.001042282646389848</v>
+        <v>0.0011187204740428563</v>
       </c>
       <c r="I46" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="J46" t="n">
-        <v>69.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="47">
@@ -3794,28 +3782,28 @@
         <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E47" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="F47" t="n">
-        <v>2.998819568714249E-4</v>
+        <v>3.486361701584271E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.001975309411566125</v>
+        <v>0.0022888722475618473</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0011048282621578813</v>
+        <v>0.0012844490479521</v>
       </c>
       <c r="I47" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="J47" t="n">
-        <v>38.0</v>
+        <v>37.0</v>
       </c>
     </row>
     <row r="48">
@@ -3826,28 +3814,28 @@
         <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="F48" t="n">
-        <v>3.51874384139817E-4</v>
+        <v>3.6397178858812534E-4</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0022684667743481817</v>
+        <v>0.0022911479748415715</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0012687967714783996</v>
+        <v>0.0012857261204234683</v>
       </c>
       <c r="I48" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="J48" t="n">
-        <v>37.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="49">
@@ -3858,28 +3846,28 @@
         <v>56</v>
       </c>
       <c r="C49" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E49" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="F49" t="n">
-        <v>3.6608175068650496E-4</v>
+        <v>3.6415596951124316E-4</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0022747439673078225</v>
+        <v>0.0022911479748415715</v>
       </c>
       <c r="H49" t="n">
-        <v>0.001272307725331108</v>
+        <v>0.0012857261204234683</v>
       </c>
       <c r="I49" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="J49" t="n">
-        <v>18.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="50">
@@ -3890,28 +3878,28 @@
         <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E50" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F50" t="n">
-        <v>3.678628858022551E-4</v>
+        <v>3.9586680545605166E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0022747439673078225</v>
+        <v>0.002439832147912808</v>
       </c>
       <c r="H50" t="n">
-        <v>0.001272307725331108</v>
+        <v>0.0013691633872916073</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="J50" t="n">
-        <v>43.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="51">
@@ -3922,28 +3910,28 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E51" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F51" t="n">
-        <v>3.980656547763739E-4</v>
+        <v>4.1921842139911445E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.002412277867944826</v>
+        <v>0.002527374920792349</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0013492330614525516</v>
+        <v>0.0014182898649270413</v>
       </c>
       <c r="I51" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="J51" t="n">
-        <v>17.0</v>
+        <v>63.0</v>
       </c>
     </row>
     <row r="52">
@@ -3954,28 +3942,28 @@
         <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F52" t="n">
-        <v>4.24571526591574E-4</v>
+        <v>4.2680834755102576E-4</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0025109608533368114</v>
+        <v>0.002527374920792349</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0014044283390211103</v>
+        <v>0.0014182898649270413</v>
       </c>
       <c r="I52" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J52" t="n">
-        <v>63.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="53">
@@ -3986,28 +3974,28 @@
         <v>60</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F53" t="n">
-        <v>4.309239748300798E-4</v>
+        <v>4.486835103088504E-4</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0025109608533368114</v>
+        <v>0.002605815771409093</v>
       </c>
       <c r="H53" t="n">
-        <v>0.0014044283390211103</v>
+        <v>0.0014623086064721644</v>
       </c>
       <c r="I53" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="J53" t="n">
-        <v>40.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="54">
@@ -4018,28 +4006,28 @@
         <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="E54" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F54" t="n">
-        <v>4.5095741109740117E-4</v>
+        <v>5.011256623010106E-4</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0025781150106134443</v>
+        <v>0.0028554707549982117</v>
       </c>
       <c r="H54" t="n">
-        <v>0.0014419889411456126</v>
+        <v>0.0016024077781621195</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="J54" t="n">
-        <v>15.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="55">
@@ -4050,28 +4038,28 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F55" t="n">
-        <v>5.070795117000738E-4</v>
+        <v>6.076711662179801E-4</v>
       </c>
       <c r="G55" t="n">
-        <v>0.002845279482317081</v>
+        <v>0.0033984572629227774</v>
       </c>
       <c r="H55" t="n">
-        <v>0.0015914191302867813</v>
+        <v>0.0019071161356938556</v>
       </c>
       <c r="I55" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="J55" t="n">
-        <v>57.0</v>
+        <v>104.0</v>
       </c>
     </row>
     <row r="56">
@@ -4082,28 +4070,28 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F56" t="n">
-        <v>6.179244018592433E-4</v>
+        <v>6.845696401997486E-4</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0034042017047881947</v>
+        <v>0.003758909660733165</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0019040349990303957</v>
+        <v>0.002109391618605924</v>
       </c>
       <c r="I56" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="J56" t="n">
-        <v>104.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="57">
@@ -4114,28 +4102,28 @@
         <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="E57" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F57" t="n">
-        <v>6.897001986051856E-4</v>
+        <v>7.364108199361647E-4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0037317707174530576</v>
+        <v>0.003930900801403694</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0020872506010420093</v>
+        <v>0.0022059080830463393</v>
       </c>
       <c r="I57" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="J57" t="n">
-        <v>28.0</v>
+        <v>96.0</v>
       </c>
     </row>
     <row r="58">
@@ -4146,28 +4134,28 @@
         <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="E58" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F58" t="n">
-        <v>7.48094834245232E-4</v>
+        <v>7.419249856953991E-4</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0039153157477859425</v>
+        <v>0.003930900801403694</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0021899108403457936</v>
+        <v>0.0022059080830463393</v>
       </c>
       <c r="I58" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="J58" t="n">
-        <v>96.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="59">
@@ -4178,28 +4166,28 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E59" t="s">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="F59" t="n">
-        <v>7.494663807643058E-4</v>
+        <v>8.176691364209068E-4</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0039153157477859425</v>
+        <v>0.004257518606881274</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0021899108403457936</v>
+        <v>0.0023891965692153542</v>
       </c>
       <c r="I59" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="J59" t="n">
-        <v>46.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="60">
@@ -4210,28 +4198,28 @@
         <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F60" t="n">
-        <v>8.27079680943292E-4</v>
+        <v>8.708750375878153E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.004247544802132499</v>
+        <v>0.00445769934494102</v>
       </c>
       <c r="H60" t="n">
-        <v>0.00237573289262926</v>
+        <v>0.002501532222152333</v>
       </c>
       <c r="I60" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J60" t="n">
-        <v>57.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="61">
@@ -4242,28 +4230,28 @@
         <v>68</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F61" t="n">
-        <v>8.806414821562899E-4</v>
+        <v>9.144789849783362E-4</v>
       </c>
       <c r="G61" t="n">
-        <v>0.004447239484889264</v>
+        <v>0.004602877557724292</v>
       </c>
       <c r="H61" t="n">
-        <v>0.0024874259408274157</v>
+        <v>0.002583002045289687</v>
       </c>
       <c r="I61" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="J61" t="n">
-        <v>55.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="62">
@@ -4274,28 +4262,28 @@
         <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="E62" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F62" t="n">
-        <v>9.189569755040301E-4</v>
+        <v>0.0010063774289806044</v>
       </c>
       <c r="G62" t="n">
-        <v>0.004564655140618379</v>
+        <v>0.004938883058729361</v>
       </c>
       <c r="H62" t="n">
-        <v>0.0025530987585185307</v>
+        <v>0.0027715586352576754</v>
       </c>
       <c r="I62" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J62" t="n">
-        <v>15.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="63">
@@ -4306,28 +4294,28 @@
         <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D63" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E63" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0010206867137000852</v>
+        <v>0.0010139428796066899</v>
       </c>
       <c r="G63" t="n">
-        <v>0.004988194745985899</v>
+        <v>0.004938883058729361</v>
       </c>
       <c r="H63" t="n">
-        <v>0.0027899925450885184</v>
+        <v>0.0027715586352576754</v>
       </c>
       <c r="I63" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="J63" t="n">
-        <v>83.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="64">
@@ -4338,25 +4326,25 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0010499952860261218</v>
+        <v>0.0010453860108198887</v>
       </c>
       <c r="G64" t="n">
-        <v>0.005049977328030395</v>
+        <v>0.0050112154804381965</v>
       </c>
       <c r="H64" t="n">
-        <v>0.002824548722643369</v>
+        <v>0.0028121495027903444</v>
       </c>
       <c r="I64" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J64" t="n">
         <v>13.0</v>
@@ -4370,28 +4358,28 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D65" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0013001579651237677</v>
+        <v>0.0013044421254797016</v>
       </c>
       <c r="G65" t="n">
-        <v>0.006117401160501964</v>
+        <v>0.006142042863970913</v>
       </c>
       <c r="H65" t="n">
-        <v>0.0034215792490561625</v>
+        <v>0.003446737194490474</v>
       </c>
       <c r="I65" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J65" t="n">
-        <v>54.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="66">
@@ -4402,28 +4390,28 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E66" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="F66" t="n">
-        <v>0.001314455317295858</v>
+        <v>0.0013219628680732098</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006117401160501964</v>
+        <v>0.006142042863970913</v>
       </c>
       <c r="H66" t="n">
-        <v>0.0034215792490561625</v>
+        <v>0.003446737194490474</v>
       </c>
       <c r="I66" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J66" t="n">
-        <v>31.0</v>
+        <v>33.0</v>
       </c>
     </row>
     <row r="67">
@@ -4434,28 +4422,28 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D67" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E67" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0013325032230796358</v>
+        <v>0.001373879349095127</v>
       </c>
       <c r="G67" t="n">
-        <v>0.006117401160501964</v>
+        <v>0.006286538839798916</v>
       </c>
       <c r="H67" t="n">
-        <v>0.0034215792490561625</v>
+        <v>0.003527824165938046</v>
       </c>
       <c r="I67" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J67" t="n">
-        <v>33.0</v>
+        <v>52.0</v>
       </c>
     </row>
     <row r="68">
@@ -4466,28 +4454,28 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E68" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0013883023112865617</v>
+        <v>0.001552751548891269</v>
       </c>
       <c r="G68" t="n">
-        <v>0.006278441795818332</v>
+        <v>0.006907390776832086</v>
       </c>
       <c r="H68" t="n">
-        <v>0.003511652350622725</v>
+        <v>0.0038762283550713345</v>
       </c>
       <c r="I68" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J68" t="n">
-        <v>52.0</v>
+        <v>34.0</v>
       </c>
     </row>
     <row r="69">
@@ -4498,28 +4486,28 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="E69" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0015652238728523506</v>
+        <v>0.001555306532531728</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0068826604877897145</v>
+        <v>0.006907390776832086</v>
       </c>
       <c r="H69" t="n">
-        <v>0.003849603399458552</v>
+        <v>0.0038762283550713345</v>
       </c>
       <c r="I69" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="J69" t="n">
-        <v>34.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="70">
@@ -4530,28 +4518,28 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D70" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="E70" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0015673385269224102</v>
+        <v>0.0018316465946143082</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0068826604877897145</v>
+        <v>0.007902246736764587</v>
       </c>
       <c r="H70" t="n">
-        <v>0.003849603399458552</v>
+        <v>0.004434512808013588</v>
       </c>
       <c r="I70" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="J70" t="n">
-        <v>32.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="71">
@@ -4562,25 +4550,25 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D71" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E71" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0018481896841470358</v>
+        <v>0.0018316465946143082</v>
       </c>
       <c r="G71" t="n">
-        <v>0.007887344708402138</v>
+        <v>0.007902246736764587</v>
       </c>
       <c r="H71" t="n">
-        <v>0.00441154246327165</v>
+        <v>0.004434512808013588</v>
       </c>
       <c r="I71" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J71" t="n">
         <v>42.0</v>
@@ -4594,28 +4582,28 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D72" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="E72" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0018481896841470358</v>
+        <v>0.002126383446690754</v>
       </c>
       <c r="G72" t="n">
-        <v>0.007887344708402138</v>
+        <v>0.009044616914093067</v>
       </c>
       <c r="H72" t="n">
-        <v>0.00441154246327165</v>
+        <v>0.005075577982464217</v>
       </c>
       <c r="I72" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="J72" t="n">
-        <v>42.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="73">
@@ -4626,28 +4614,28 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D73" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E73" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F73" t="n">
-        <v>0.002135402384587324</v>
+        <v>0.0022480197778120066</v>
       </c>
       <c r="G73" t="n">
-        <v>0.008986485035138322</v>
+        <v>0.00940549359265733</v>
       </c>
       <c r="H73" t="n">
-        <v>0.005026312630388292</v>
+        <v>0.005278091559490521</v>
       </c>
       <c r="I73" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="J73" t="n">
-        <v>13.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="74">
@@ -4658,28 +4646,28 @@
         <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D74" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E74" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0022685783432891725</v>
+        <v>0.0022735133518675004</v>
       </c>
       <c r="G74" t="n">
-        <v>0.009366162977782966</v>
+        <v>0.00940549359265733</v>
       </c>
       <c r="H74" t="n">
-        <v>0.005238673751686842</v>
+        <v>0.005278091559490521</v>
       </c>
       <c r="I74" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="J74" t="n">
-        <v>44.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="75">
@@ -4690,28 +4678,28 @@
         <v>82</v>
       </c>
       <c r="C75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="E75" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F75" t="n">
-        <v>0.002287445743748975</v>
+        <v>0.0023367930245300063</v>
       </c>
       <c r="G75" t="n">
-        <v>0.009366162977782966</v>
+        <v>0.009536641802811646</v>
       </c>
       <c r="H75" t="n">
-        <v>0.005238673751686842</v>
+        <v>0.005351688150061608</v>
       </c>
       <c r="I75" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J75" t="n">
-        <v>23.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="76">
@@ -4722,28 +4710,28 @@
         <v>83</v>
       </c>
       <c r="C76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D76" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="E76" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00236141120587173</v>
+        <v>0.0024211443537255142</v>
       </c>
       <c r="G76" t="n">
-        <v>0.00954010127172179</v>
+        <v>0.009620863089804017</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0053359607599347166</v>
+        <v>0.0053989507056760085</v>
       </c>
       <c r="I76" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J76" t="n">
-        <v>56.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="77">
@@ -4754,25 +4742,25 @@
         <v>84</v>
       </c>
       <c r="C77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E77" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.002436710425651811</v>
+        <v>0.0024211443537255142</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009588613752889594</v>
+        <v>0.009620863089804017</v>
       </c>
       <c r="H77" t="n">
-        <v>0.005363094716745614</v>
+        <v>0.0053989507056760085</v>
       </c>
       <c r="I77" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="J77" t="n">
         <v>25.0</v>
@@ -4786,28 +4774,28 @@
         <v>85</v>
       </c>
       <c r="C78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D78" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F78" t="n">
-        <v>0.002436710425651811</v>
+        <v>0.002467961929669578</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009588613752889594</v>
+        <v>0.009679538996885879</v>
       </c>
       <c r="H78" t="n">
-        <v>0.005363094716745614</v>
+        <v>0.005431877931330173</v>
       </c>
       <c r="I78" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="J78" t="n">
-        <v>25.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="79">
@@ -4818,28 +4806,28 @@
         <v>86</v>
       </c>
       <c r="C79" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D79" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E79" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0024906711205821015</v>
+        <v>0.0025090238337823105</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009675299353030471</v>
+        <v>0.009702213357023723</v>
       </c>
       <c r="H79" t="n">
-        <v>0.005411579627715497</v>
+        <v>0.005444602127852281</v>
       </c>
       <c r="I79" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="J79" t="n">
-        <v>45.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="80">
@@ -4850,28 +4838,28 @@
         <v>87</v>
       </c>
       <c r="C80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="E80" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0025304998160708527</v>
+        <v>0.0025379962092876625</v>
       </c>
       <c r="G80" t="n">
-        <v>0.009680203421423826</v>
+        <v>0.009702213357023723</v>
       </c>
       <c r="H80" t="n">
-        <v>0.005414322566785605</v>
+        <v>0.005444602127852281</v>
       </c>
       <c r="I80" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="J80" t="n">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="81">
@@ -4882,28 +4870,28 @@
         <v>88</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E81" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0025558292861845087</v>
+        <v>0.002656605666675011</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009680203421423826</v>
+        <v>0.009957210619671936</v>
       </c>
       <c r="H81" t="n">
-        <v>0.005414322566785605</v>
+        <v>0.005587699232370798</v>
       </c>
       <c r="I81" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="J81" t="n">
-        <v>29.0</v>
+        <v>58.0</v>
       </c>
     </row>
     <row r="82">
@@ -4914,28 +4902,28 @@
         <v>89</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="E82" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0026848829743152313</v>
+        <v>0.002670642583421943</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009926481137363908</v>
+        <v>0.009957210619671936</v>
       </c>
       <c r="H82" t="n">
-        <v>0.005552070394704149</v>
+        <v>0.005587699232370798</v>
       </c>
       <c r="I82" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="J82" t="n">
-        <v>58.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="83">
@@ -4946,28 +4934,28 @@
         <v>90</v>
       </c>
       <c r="C83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D83" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E83" t="s">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0026863744332139947</v>
+        <v>0.0027476715623149617</v>
       </c>
       <c r="G83" t="n">
-        <v>0.009926481137363908</v>
+        <v>0.010119473314867298</v>
       </c>
       <c r="H83" t="n">
-        <v>0.005552070394704149</v>
+        <v>0.005678756373975723</v>
       </c>
       <c r="I83" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J83" t="n">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
     </row>
     <row r="84">
@@ -4978,28 +4966,28 @@
         <v>91</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D84" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>324</v>
+        <v>373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.002769577362970607</v>
+        <v>0.0029366117375304894</v>
       </c>
       <c r="G84" t="n">
-        <v>0.010110625794940892</v>
+        <v>0.010685021020894069</v>
       </c>
       <c r="H84" t="n">
-        <v>0.005655066016972325</v>
+        <v>0.005996125424761051</v>
       </c>
       <c r="I84" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="J84" t="n">
-        <v>36.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="85">
@@ -5010,28 +4998,28 @@
         <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>377</v>
+        <v>349</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0029765245229634307</v>
+        <v>0.0031245508317125988</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01073674917211809</v>
+        <v>0.01123350418068101</v>
       </c>
       <c r="H85" t="n">
-        <v>0.006005268774399904</v>
+        <v>0.0063039183446833135</v>
       </c>
       <c r="I85" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="J85" t="n">
-        <v>89.0</v>
+        <v>54.0</v>
       </c>
     </row>
     <row r="86">
@@ -5042,28 +5030,28 @@
         <v>93</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="F86" t="n">
-        <v>0.003155990856584644</v>
+        <v>0.0032672766881423274</v>
       </c>
       <c r="G86" t="n">
-        <v>0.011250179171119378</v>
+        <v>0.011608441880223327</v>
       </c>
       <c r="H86" t="n">
-        <v>0.006292439974119228</v>
+        <v>0.006514322560878201</v>
       </c>
       <c r="I86" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="J86" t="n">
-        <v>54.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="87">
@@ -5074,28 +5062,28 @@
         <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F87" t="n">
-        <v>0.003283970530005407</v>
+        <v>0.0036285208303052513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01157026826269347</v>
+        <v>0.012742015008746348</v>
       </c>
       <c r="H87" t="n">
-        <v>0.006471471913474548</v>
+        <v>0.007150451085424058</v>
       </c>
       <c r="I87" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="J87" t="n">
-        <v>18.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="88">
@@ -5106,28 +5094,28 @@
         <v>95</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003666877408874656</v>
+        <v>0.00368668772514764</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0127626839080648</v>
+        <v>0.01279746773556997</v>
       </c>
       <c r="H88" t="n">
-        <v>0.007138412746911354</v>
+        <v>0.007181569555339021</v>
       </c>
       <c r="I88" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="J88" t="n">
-        <v>60.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="89">
@@ -5138,28 +5126,28 @@
         <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D89" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="E89" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003706654072309249</v>
+        <v>0.003800989986220565</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0127626839080648</v>
+        <v>0.012897741301557422</v>
       </c>
       <c r="H89" t="n">
-        <v>0.007138412746911354</v>
+        <v>0.007237840186652998</v>
       </c>
       <c r="I89" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J89" t="n">
-        <v>20.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="90">
@@ -5170,25 +5158,25 @@
         <v>97</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D90" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003831956275588838</v>
+        <v>0.003800989986220565</v>
       </c>
       <c r="G90" t="n">
-        <v>0.012900919461149088</v>
+        <v>0.012897741301557422</v>
       </c>
       <c r="H90" t="n">
-        <v>0.00721573053064097</v>
+        <v>0.007237840186652998</v>
       </c>
       <c r="I90" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="J90" t="n">
         <v>39.0</v>
@@ -5202,28 +5190,28 @@
         <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003831956275588838</v>
+        <v>0.004105617434840807</v>
       </c>
       <c r="G91" t="n">
-        <v>0.012900919461149088</v>
+        <v>0.01377662739246582</v>
       </c>
       <c r="H91" t="n">
-        <v>0.00721573053064097</v>
+        <v>0.007731045696016023</v>
       </c>
       <c r="I91" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="J91" t="n">
-        <v>39.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="92">
@@ -5234,28 +5222,28 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004130334397083717</v>
+        <v>0.004561192562767517</v>
       </c>
       <c r="G92" t="n">
-        <v>0.013752651893586442</v>
+        <v>0.015137144548964728</v>
       </c>
       <c r="H92" t="n">
-        <v>0.007692120739508136</v>
+        <v>0.008494528659405092</v>
       </c>
       <c r="I92" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="J92" t="n">
-        <v>24.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="93">
@@ -5266,28 +5254,28 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="F93" t="n">
-        <v>0.004612447130371707</v>
+        <v>0.004665782454686618</v>
       </c>
       <c r="G93" t="n">
-        <v>0.015190994353289427</v>
+        <v>0.015315938057775636</v>
       </c>
       <c r="H93" t="n">
-        <v>0.00849661313489525</v>
+        <v>0.00859486241652798</v>
       </c>
       <c r="I93" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="J93" t="n">
-        <v>69.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="94">
@@ -5298,28 +5286,28 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="E94" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F94" t="n">
-        <v>0.004691363880816312</v>
+        <v>0.005229293347983815</v>
       </c>
       <c r="G94" t="n">
-        <v>0.015284766192337018</v>
+        <v>0.016981146140764646</v>
       </c>
       <c r="H94" t="n">
-        <v>0.008549061514560568</v>
+        <v>0.009529329134413065</v>
       </c>
       <c r="I94" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="J94" t="n">
-        <v>21.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="95">
@@ -5330,28 +5318,28 @@
         <v>102</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D95" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F95" t="n">
-        <v>0.005280600167206683</v>
+        <v>0.005397495486557171</v>
       </c>
       <c r="G95" t="n">
-        <v>0.017021509049613033</v>
+        <v>0.017158354073055427</v>
       </c>
       <c r="H95" t="n">
-        <v>0.009520454948715297</v>
+        <v>0.00962877311175296</v>
       </c>
       <c r="I95" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J95" t="n">
-        <v>56.0</v>
+        <v>69.0</v>
       </c>
     </row>
     <row r="96">
@@ -5362,25 +5350,25 @@
         <v>103</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F96" t="n">
-        <v>0.005457164229416008</v>
+        <v>0.005397495486557171</v>
       </c>
       <c r="G96" t="n">
-        <v>0.017224174599094276</v>
+        <v>0.017158354073055427</v>
       </c>
       <c r="H96" t="n">
-        <v>0.009633809659385718</v>
+        <v>0.00962877311175296</v>
       </c>
       <c r="I96" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="J96" t="n">
         <v>69.0</v>
@@ -5394,28 +5382,28 @@
         <v>104</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="E97" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005457164229416008</v>
+        <v>0.005992250706832354</v>
       </c>
       <c r="G97" t="n">
-        <v>0.017224174599094276</v>
+        <v>0.018705560179725748</v>
       </c>
       <c r="H97" t="n">
-        <v>0.009633809659385718</v>
+        <v>0.010497020526092176</v>
       </c>
       <c r="I97" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="J97" t="n">
-        <v>69.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="98">
@@ -5426,28 +5414,28 @@
         <v>105</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F98" t="n">
-        <v>0.006017129379563248</v>
+        <v>0.006008077276269529</v>
       </c>
       <c r="G98" t="n">
-        <v>0.018753907446775884</v>
+        <v>0.018705560179725748</v>
       </c>
       <c r="H98" t="n">
-        <v>0.010489418443393845</v>
+        <v>0.010497020526092176</v>
       </c>
       <c r="I98" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="J98" t="n">
-        <v>14.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="99">
@@ -5458,28 +5446,28 @@
         <v>106</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E99" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006065620230310352</v>
+        <v>0.00657290722030379</v>
       </c>
       <c r="G99" t="n">
-        <v>0.018753907446775884</v>
+        <v>0.020066032415909096</v>
       </c>
       <c r="H99" t="n">
-        <v>0.010489418443393845</v>
+        <v>0.011260478281496565</v>
       </c>
       <c r="I99" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J99" t="n">
-        <v>55.0</v>
+        <v>46.0</v>
       </c>
     </row>
     <row r="100">
@@ -5490,28 +5478,28 @@
         <v>107</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="E100" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="F100" t="n">
-        <v>0.00662907730102526</v>
+        <v>0.0065779377787251675</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02017667780452856</v>
+        <v>0.020066032415909096</v>
       </c>
       <c r="H100" t="n">
-        <v>0.01128520106489178</v>
+        <v>0.011260478281496565</v>
       </c>
       <c r="I100" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J100" t="n">
-        <v>46.0</v>
+        <v>86.0</v>
       </c>
     </row>
     <row r="101">
@@ -5522,28 +5510,28 @@
         <v>108</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D101" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="E101" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F101" t="n">
-        <v>0.00665896957245167</v>
+        <v>0.007135425511332715</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02017667780452856</v>
+        <v>0.0215489850442248</v>
       </c>
       <c r="H101" t="n">
-        <v>0.01128520106489178</v>
+        <v>0.012092668498153339</v>
       </c>
       <c r="I101" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J101" t="n">
-        <v>86.0</v>
+        <v>44.0</v>
       </c>
     </row>
     <row r="102">
@@ -5554,28 +5542,28 @@
         <v>109</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D102" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="E102" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F102" t="n">
-        <v>0.007194341003591939</v>
+        <v>0.007216171792101773</v>
       </c>
       <c r="G102" t="n">
-        <v>0.021583023010775818</v>
+        <v>0.021577068130838963</v>
       </c>
       <c r="H102" t="n">
-        <v>0.012071796785599815</v>
+        <v>0.012108427915876869</v>
       </c>
       <c r="I102" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="J102" t="n">
-        <v>44.0</v>
+        <v>59.0</v>
       </c>
     </row>
     <row r="103">
@@ -5586,28 +5574,28 @@
         <v>110</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F103" t="n">
-        <v>0.007286859036551345</v>
+        <v>0.007532112048517918</v>
       </c>
       <c r="G103" t="n">
-        <v>0.021646257726226054</v>
+        <v>0.02230095920247462</v>
       </c>
       <c r="H103" t="n">
-        <v>0.012107165169089438</v>
+        <v>0.012514654693615943</v>
       </c>
       <c r="I103" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J103" t="n">
-        <v>59.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="104">
@@ -5618,28 +5606,28 @@
         <v>111</v>
       </c>
       <c r="C104" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="E104" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0075793597417499045</v>
+        <v>0.008262168572468497</v>
       </c>
       <c r="G104" t="n">
-        <v>0.022296563123788554</v>
+        <v>0.024224999115393067</v>
       </c>
       <c r="H104" t="n">
-        <v>0.012470893392148541</v>
+        <v>0.013594370364511273</v>
       </c>
       <c r="I104" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J104" t="n">
-        <v>28.0</v>
+        <v>43.0</v>
       </c>
     </row>
     <row r="105">
@@ -5650,28 +5638,28 @@
         <v>112</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E105" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="F105" t="n">
-        <v>0.00832847048916656</v>
+        <v>0.008461781049890987</v>
       </c>
       <c r="G105" t="n">
-        <v>0.024264678444398727</v>
+        <v>0.02436536933867361</v>
       </c>
       <c r="H105" t="n">
-        <v>0.013571697861900977</v>
+        <v>0.01367314208269938</v>
       </c>
       <c r="I105" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J105" t="n">
-        <v>43.0</v>
+        <v>29.0</v>
       </c>
     </row>
     <row r="106">
@@ -5682,28 +5670,28 @@
         <v>113</v>
       </c>
       <c r="C106" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="E106" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="F106" t="n">
-        <v>0.008515384270358414</v>
+        <v>0.008471403246889832</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0244686961179339</v>
+        <v>0.02436536933867361</v>
       </c>
       <c r="H106" t="n">
-        <v>0.013685808841366538</v>
+        <v>0.01367314208269938</v>
       </c>
       <c r="I106" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J106" t="n">
-        <v>29.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="107">
@@ -5714,28 +5702,28 @@
         <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E107" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="F107" t="n">
-        <v>0.008560005902643542</v>
+        <v>0.009194415229441444</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0244686961179339</v>
+        <v>0.026195409427276568</v>
       </c>
       <c r="H107" t="n">
-        <v>0.013685808841366538</v>
+        <v>0.014700107765045408</v>
       </c>
       <c r="I107" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J107" t="n">
-        <v>68.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="108">
@@ -5746,28 +5734,28 @@
         <v>115</v>
       </c>
       <c r="C108" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D108" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F108" t="n">
-        <v>0.009225924032576893</v>
+        <v>0.00973074936768445</v>
       </c>
       <c r="G108" t="n">
-        <v>0.026125747494119615</v>
+        <v>0.027464358028417794</v>
       </c>
       <c r="H108" t="n">
-        <v>0.014612629308852728</v>
+        <v>0.015412205097857318</v>
       </c>
       <c r="I108" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J108" t="n">
-        <v>11.0</v>
+        <v>39.0</v>
       </c>
     </row>
     <row r="109">
@@ -5778,28 +5766,28 @@
         <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D109" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="E109" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F109" t="n">
-        <v>0.009803215881981681</v>
+        <v>0.010782275219680192</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02750346678000416</v>
+        <v>0.030150436262439056</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0153832140058387</v>
+        <v>0.0169195546819543</v>
       </c>
       <c r="I109" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="J109" t="n">
-        <v>39.0</v>
+        <v>77.0</v>
       </c>
     </row>
     <row r="110">
@@ -5810,28 +5798,28 @@
         <v>117</v>
       </c>
       <c r="C110" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D110" t="s">
-        <v>252</v>
+        <v>285</v>
       </c>
       <c r="E110" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F110" t="n">
-        <v>0.010900188102802908</v>
+        <v>0.011332989118999163</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03030052289127781</v>
+        <v>0.03139965792603438</v>
       </c>
       <c r="H110" t="n">
-        <v>0.016947660884126203</v>
+        <v>0.017620581826739406</v>
       </c>
       <c r="I110" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="J110" t="n">
-        <v>77.0</v>
+        <v>32.0</v>
       </c>
     </row>
     <row r="111">
@@ -5842,28 +5830,28 @@
         <v>118</v>
       </c>
       <c r="C111" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="F111" t="n">
-        <v>0.011406856288556812</v>
+        <v>0.012140948900954273</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0314207041402974</v>
+        <v>0.03333242334625628</v>
       </c>
       <c r="H111" t="n">
-        <v>0.017574199640743034</v>
+        <v>0.018705194000513282</v>
       </c>
       <c r="I111" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J111" t="n">
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="112">
@@ -5874,28 +5862,28 @@
         <v>119</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D112" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>397</v>
+        <v>324</v>
       </c>
       <c r="F112" t="n">
-        <v>0.015576151223212355</v>
+        <v>0.016989475068715308</v>
       </c>
       <c r="G112" t="n">
-        <v>0.04251868306876886</v>
+        <v>0.046223616853621835</v>
       </c>
       <c r="H112" t="n">
-        <v>0.023781511113676525</v>
+        <v>0.02593935975403665</v>
       </c>
       <c r="I112" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="J112" t="n">
-        <v>30.0</v>
+        <v>55.0</v>
       </c>
     </row>
     <row r="113">
@@ -5906,28 +5894,28 @@
         <v>120</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E113" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="F113" t="n">
-        <v>0.01713421618176901</v>
+        <v>0.01779297984727938</v>
       </c>
       <c r="G113" t="n">
-        <v>0.04635417413460723</v>
+        <v>0.0479774992310569</v>
       </c>
       <c r="H113" t="n">
-        <v>0.02592677448557153</v>
+        <v>0.026923587926804327</v>
       </c>
       <c r="I113" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="J113" t="n">
-        <v>55.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="114">
@@ -5938,59 +5926,27 @@
         <v>121</v>
       </c>
       <c r="C114" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D114" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="E114" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F114" t="n">
-        <v>0.01785682476780185</v>
+        <v>0.018341039338250237</v>
       </c>
       <c r="G114" t="n">
-        <v>0.04788157437738018</v>
+        <v>0.049017644957093556</v>
       </c>
       <c r="H114" t="n">
-        <v>0.026781078599125274</v>
+        <v>0.027507287689411165</v>
       </c>
       <c r="I114" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="J114" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" t="s">
-        <v>122</v>
-      </c>
-      <c r="C115" t="s">
-        <v>236</v>
-      </c>
-      <c r="D115" t="s">
-        <v>304</v>
-      </c>
-      <c r="E115" t="s">
-        <v>398</v>
-      </c>
-      <c r="F115" t="n">
-        <v>0.018396530910303483</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.04889604268264873</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.027348490088262796</v>
-      </c>
-      <c r="I115" t="s">
-        <v>512</v>
-      </c>
-      <c r="J115" t="n">
         <v>10.0</v>
       </c>
     </row>
@@ -6039,31 +5995,31 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D2" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="E2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F2" t="n">
-        <v>1.052901551343692E-13</v>
+        <v>9.55432872106913E-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.190291700571387E-11</v>
+        <v>2.8854072737628774E-11</v>
       </c>
       <c r="H2" t="n">
-        <v>2.3053002387314525E-11</v>
+        <v>2.0818379423803263E-11</v>
       </c>
       <c r="I2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="J2" t="n">
         <v>90.0</v>
@@ -6071,31 +6027,31 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C3" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5068134738378778E-11</v>
+        <v>1.3751044391993043E-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2.282822412864385E-9</v>
+        <v>2.0764077031909497E-9</v>
       </c>
       <c r="H3" t="n">
-        <v>1.64956422399094E-9</v>
+        <v>1.4981400995487157E-9</v>
       </c>
       <c r="I3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="J3" t="n">
         <v>91.0</v>
@@ -6103,31 +6059,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D4" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F4" t="n">
-        <v>4.155803105169172E-11</v>
+        <v>3.7646082467074914E-11</v>
       </c>
       <c r="G4" t="n">
-        <v>4.197361136220864E-9</v>
+        <v>3.789705635018875E-9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.033007178509431E-9</v>
+        <v>2.7342944107664933E-9</v>
       </c>
       <c r="I4" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="J4" t="n">
         <v>105.0</v>
@@ -6135,31 +6091,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C5" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="E5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F5" t="n">
-        <v>7.264467611302932E-11</v>
+        <v>6.636055902133225E-11</v>
       </c>
       <c r="G5" t="n">
-        <v>5.502834215561971E-9</v>
+        <v>5.0102222061105846E-9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.976340166186869E-9</v>
+        <v>3.614904136162046E-9</v>
       </c>
       <c r="I5" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="J5" t="n">
         <v>93.0</v>
@@ -6167,31 +6123,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D6" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="E6" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F6" t="n">
-        <v>6.615838753621281E-10</v>
+        <v>6.001411893714911E-10</v>
       </c>
       <c r="G6" t="n">
-        <v>4.009198284694496E-8</v>
+        <v>3.624852783803806E-8</v>
       </c>
       <c r="H6" t="n">
-        <v>2.8970409700067925E-8</v>
+        <v>2.6153521305241822E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="J6" t="n">
         <v>111.0</v>
@@ -6199,31 +6155,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E7" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F7" t="n">
-        <v>2.840516189730657E-9</v>
+        <v>2.6164734115146474E-9</v>
       </c>
       <c r="G7" t="n">
-        <v>1.4344606758139818E-7</v>
+        <v>1.3169582837957058E-7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0365392411648715E-7</v>
+        <v>9.501929757605826E-8</v>
       </c>
       <c r="I7" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="J7" t="n">
         <v>89.0</v>
@@ -6231,31 +6187,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C8" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D8" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E8" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F8" t="n">
-        <v>4.785862663166801E-9</v>
+        <v>4.382234630393618E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0715948384850582E-7</v>
+        <v>1.8906212262555323E-7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4969314796070595E-7</v>
+        <v>1.364094087957111E-7</v>
       </c>
       <c r="I8" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J8" t="n">
         <v>101.0</v>
@@ -6263,31 +6219,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D9" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E9" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F9" t="n">
-        <v>2.5329130118847034E-8</v>
+        <v>2.380573609509477E-8</v>
       </c>
       <c r="G9" t="n">
-        <v>8.745436908928904E-7</v>
+        <v>8.248516126843488E-7</v>
       </c>
       <c r="H9" t="n">
-        <v>6.319440253803065E-7</v>
+        <v>5.951351823829215E-7</v>
       </c>
       <c r="I9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="J9" t="n">
         <v>62.0</v>
@@ -6295,31 +6251,31 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D10" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="E10" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F10" t="n">
-        <v>2.5976545274046253E-8</v>
+        <v>2.458167057668589E-8</v>
       </c>
       <c r="G10" t="n">
-        <v>8.745436908928904E-7</v>
+        <v>8.248516126843488E-7</v>
       </c>
       <c r="H10" t="n">
-        <v>6.319440253803065E-7</v>
+        <v>5.951351823829215E-7</v>
       </c>
       <c r="I10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J10" t="n">
         <v>52.0</v>
@@ -6327,31 +6283,31 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D11" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E11" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F11" t="n">
-        <v>1.485957169742549E-7</v>
+        <v>1.427916768012321E-7</v>
       </c>
       <c r="G11" t="n">
-        <v>4.502450224319924E-6</v>
+        <v>4.312308639397209E-6</v>
       </c>
       <c r="H11" t="n">
-        <v>3.253464119015266E-6</v>
+        <v>3.111355483984741E-6</v>
       </c>
       <c r="I11" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J11" t="n">
         <v>34.0</v>
@@ -6359,31 +6315,31 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F12" t="n">
-        <v>3.1864580090576814E-7</v>
+        <v>3.0349384666016774E-7</v>
       </c>
       <c r="G12" t="n">
-        <v>8.777243424949796E-6</v>
+        <v>8.332285608306424E-6</v>
       </c>
       <c r="H12" t="n">
-        <v>6.3424235969760565E-6</v>
+        <v>6.011791986474136E-6</v>
       </c>
       <c r="I12" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J12" t="n">
         <v>47.0</v>
@@ -6391,31 +6347,31 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="D13" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="E13" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F13" t="n">
-        <v>3.976842348264585E-7</v>
+        <v>3.853896917035136E-7</v>
       </c>
       <c r="G13" t="n">
-        <v>1.0041526929368078E-5</v>
+        <v>9.69897390787176E-6</v>
       </c>
       <c r="H13" t="n">
-        <v>7.255993056482753E-6</v>
+        <v>6.997865454616431E-6</v>
       </c>
       <c r="I13" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J13" t="n">
         <v>25.0</v>
@@ -6423,31 +6379,31 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C14" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D14" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E14" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F14" t="n">
-        <v>6.438281770484608E-7</v>
+        <v>6.204620260657676E-7</v>
       </c>
       <c r="G14" t="n">
-        <v>1.500614904966797E-5</v>
+        <v>1.441381014398937E-5</v>
       </c>
       <c r="H14" t="n">
-        <v>1.0843421929237235E-5</v>
+        <v>1.0399646914624606E-5</v>
       </c>
       <c r="I14" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J14" t="n">
         <v>32.0</v>
@@ -6455,31 +6411,31 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D15" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F15" t="n">
-        <v>7.753620508859635E-7</v>
+        <v>7.287578649378248E-7</v>
       </c>
       <c r="G15" t="n">
-        <v>1.678105010131764E-5</v>
+        <v>1.5720348229373077E-5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.2125962901073717E-5</v>
+        <v>1.1342321657302985E-5</v>
       </c>
       <c r="I15" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J15" t="n">
         <v>71.0</v>
@@ -6487,31 +6443,31 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C16" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D16" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E16" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="F16" t="n">
-        <v>8.670019666498268E-7</v>
+        <v>8.132988959528715E-7</v>
       </c>
       <c r="G16" t="n">
-        <v>1.75134397263265E-5</v>
+        <v>1.6374417771851147E-5</v>
       </c>
       <c r="H16" t="n">
-        <v>1.265518660092379E-5</v>
+        <v>1.1814236593841712E-5</v>
       </c>
       <c r="I16" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J16" t="n">
         <v>75.0</v>
@@ -6519,31 +6475,31 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C17" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D17" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="E17" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F17" t="n">
-        <v>1.014075848557576E-6</v>
+        <v>9.500533508971738E-7</v>
       </c>
       <c r="G17" t="n">
-        <v>1.9204061382059094E-5</v>
+        <v>1.7932256998184155E-5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.38768274013142E-5</v>
+        <v>1.2938226554981247E-5</v>
       </c>
       <c r="I17" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="J17" t="n">
         <v>78.0</v>
@@ -6551,31 +6507,31 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C18" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D18" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E18" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1601571883302743E-6</v>
+        <v>1.077060148077203E-6</v>
       </c>
       <c r="G18" t="n">
-        <v>2.067809576847489E-5</v>
+        <v>1.9133656748195016E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>1.4941962549393008E-5</v>
+        <v>1.3805043384023591E-5</v>
       </c>
       <c r="I18" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="J18" t="n">
         <v>97.0</v>
@@ -6583,31 +6539,31 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C19" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D19" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E19" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F19" t="n">
-        <v>1.2859404053844437E-6</v>
+        <v>1.2072205698781932E-6</v>
       </c>
       <c r="G19" t="n">
-        <v>2.1646663490638132E-5</v>
+        <v>2.0254478450178574E-5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.5641848205845867E-5</v>
+        <v>1.4613722687999181E-5</v>
       </c>
       <c r="I19" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J19" t="n">
         <v>75.0</v>
@@ -6615,31 +6571,31 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="C20" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D20" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E20" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F20" t="n">
-        <v>2.1757868822180873E-6</v>
+        <v>2.06737467538154E-6</v>
       </c>
       <c r="G20" t="n">
-        <v>3.469807501642529E-5</v>
+        <v>3.286037641922238E-5</v>
       </c>
       <c r="H20" t="n">
-        <v>2.5072779584563005E-5</v>
+        <v>2.370895057085755E-5</v>
       </c>
       <c r="I20" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J20" t="n">
         <v>55.0</v>
@@ -6647,31 +6603,31 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C21" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D21" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E21" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F21" t="n">
-        <v>4.821027921841193E-6</v>
+        <v>4.581574043402376E-6</v>
       </c>
       <c r="G21" t="n">
-        <v>7.143673589952208E-5</v>
+        <v>6.66126418135582E-5</v>
       </c>
       <c r="H21" t="n">
-        <v>5.1620083609868314E-5</v>
+        <v>4.806140416663138E-5</v>
       </c>
       <c r="I21" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J21" t="n">
         <v>57.0</v>
@@ -6679,31 +6635,31 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="C22" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D22" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="E22" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F22" t="n">
-        <v>4.9510609039272724E-6</v>
+        <v>4.632004894320272E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>7.143673589952208E-5</v>
+        <v>6.66126418135582E-5</v>
       </c>
       <c r="H22" t="n">
-        <v>5.1620083609868314E-5</v>
+        <v>4.806140416663138E-5</v>
       </c>
       <c r="I22" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="J22" t="n">
         <v>88.0</v>
@@ -6711,31 +6667,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C23" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D23" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E23" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F23" t="n">
-        <v>5.460047774645527E-6</v>
+        <v>5.284533662907688E-6</v>
       </c>
       <c r="G23" t="n">
-        <v>7.51997488962543E-5</v>
+        <v>7.254223482718734E-5</v>
       </c>
       <c r="H23" t="n">
-        <v>5.433923144144832E-5</v>
+        <v>5.2339639627841694E-5</v>
       </c>
       <c r="I23" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J23" t="n">
         <v>29.0</v>
@@ -6743,31 +6699,31 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B24" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="C24" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D24" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="E24" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F24" t="n">
-        <v>9.277452024546038E-6</v>
+        <v>8.721001995891659E-6</v>
       </c>
       <c r="G24" t="n">
-        <v>1.2222034623641086E-4</v>
+        <v>1.1451054794605569E-4</v>
       </c>
       <c r="H24" t="n">
-        <v>8.831624810551836E-5</v>
+        <v>8.26200189084473E-5</v>
       </c>
       <c r="I24" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="J24" t="n">
         <v>81.0</v>
@@ -6775,95 +6731,95 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B25" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C25" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D25" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>307</v>
       </c>
       <c r="F25" t="n">
-        <v>1.930066242128179E-5</v>
+        <v>1.2046169863766971E-5</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335939358431485E-4</v>
+        <v>1.515809707857344E-4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.6879464532004482E-4</v>
+        <v>1.0936654218420012E-4</v>
       </c>
       <c r="I25" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="J25" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B26" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="C26" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D26" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="E26" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F26" t="n">
-        <v>1.9808119131436287E-5</v>
+        <v>1.855580116874662E-5</v>
       </c>
       <c r="G26" t="n">
-        <v>2.335939358431485E-4</v>
+        <v>2.1565302142023744E-4</v>
       </c>
       <c r="H26" t="n">
-        <v>1.6879464532004482E-4</v>
+        <v>1.5559489520386598E-4</v>
       </c>
       <c r="I26" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="J26" t="n">
-        <v>49.0</v>
+        <v>41.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D27" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="E27" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F27" t="n">
-        <v>2.02432736006627E-5</v>
+        <v>1.9023125899022907E-5</v>
       </c>
       <c r="G27" t="n">
-        <v>2.335939358431485E-4</v>
+        <v>2.1565302142023744E-4</v>
       </c>
       <c r="H27" t="n">
-        <v>1.6879464532004482E-4</v>
+        <v>1.5559489520386598E-4</v>
       </c>
       <c r="I27" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="J27" t="n">
         <v>86.0</v>
@@ -6871,31 +6827,31 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E28" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F28" t="n">
-        <v>2.0815301213745908E-5</v>
+        <v>1.928023701439209E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>2.335939358431485E-4</v>
+        <v>2.1565302142023744E-4</v>
       </c>
       <c r="H28" t="n">
-        <v>1.6879464532004482E-4</v>
+        <v>1.5559489520386598E-4</v>
       </c>
       <c r="I28" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="J28" t="n">
         <v>122.0</v>
@@ -6903,31 +6859,31 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D29" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E29" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F29" t="n">
-        <v>3.753251196301821E-5</v>
+        <v>3.559603281265404E-5</v>
       </c>
       <c r="G29" t="n">
-        <v>4.061553973140899E-4</v>
+        <v>3.839286396221972E-4</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9348731159051835E-4</v>
+        <v>2.77006721512007E-4</v>
       </c>
       <c r="I29" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J29" t="n">
         <v>69.0</v>
@@ -6935,31 +6891,31 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B30" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C30" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D30" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="E30" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F30" t="n">
-        <v>4.54205478192698E-5</v>
+        <v>4.405792734954303E-5</v>
       </c>
       <c r="G30" t="n">
-        <v>4.745664134220259E-4</v>
+        <v>4.588101399848964E-4</v>
       </c>
       <c r="H30" t="n">
-        <v>3.429210143886795E-4</v>
+        <v>3.310341546771473E-4</v>
       </c>
       <c r="I30" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="J30" t="n">
         <v>29.0</v>
@@ -6967,31 +6923,31 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B31" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D31" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E31" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F31" t="n">
-        <v>5.821734471969979E-5</v>
+        <v>5.5614891762118E-5</v>
       </c>
       <c r="G31" t="n">
-        <v>5.879951816689679E-4</v>
+        <v>5.598565770719878E-4</v>
       </c>
       <c r="H31" t="n">
-        <v>4.248844807613178E-4</v>
+        <v>4.039397401669623E-4</v>
       </c>
       <c r="I31" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="J31" t="n">
         <v>56.0</v>
@@ -6999,31 +6955,31 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B32" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C32" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D32" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E32" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F32" t="n">
-        <v>7.875083416330038E-5</v>
+        <v>7.628828875280385E-5</v>
       </c>
       <c r="G32" t="n">
-        <v>7.697258952090327E-4</v>
+        <v>7.431955872047344E-4</v>
       </c>
       <c r="H32" t="n">
-        <v>5.562028355166887E-4</v>
+        <v>5.362198903847333E-4</v>
       </c>
       <c r="I32" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J32" t="n">
         <v>32.0</v>
@@ -7031,31 +6987,31 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B33" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D33" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="E33" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F33" t="n">
-        <v>1.5902834319877395E-4</v>
+        <v>1.5480002484896072E-4</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0015057996246633908</v>
+        <v>0.0014609252345120667</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0010880886639916113</v>
+        <v>0.0010540659586754891</v>
       </c>
       <c r="I33" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J33" t="n">
         <v>26.0</v>
@@ -7063,31 +7019,31 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B34" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C34" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D34" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E34" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F34" t="n">
-        <v>1.776683997440671E-4</v>
+        <v>1.7189903936098283E-4</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0016313189431046162</v>
+        <v>0.0015731366632429338</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0011787887447134277</v>
+        <v>0.0011350271498476378</v>
       </c>
       <c r="I34" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J34" t="n">
         <v>36.0</v>
@@ -7095,95 +7051,95 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B35" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C35" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D35" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E35" t="s">
-        <v>310</v>
+        <v>672</v>
       </c>
       <c r="F35" t="n">
-        <v>1.9402359428350116E-4</v>
+        <v>2.282758801560533E-4</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0017290926196441429</v>
+        <v>0.0020276269355037676</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0012494398641166638</v>
+        <v>0.001462944495117741</v>
       </c>
       <c r="I35" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J35" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B36" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C36" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D36" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="E36" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F36" t="n">
-        <v>2.373235487136885E-4</v>
+        <v>2.8626633773666126E-4</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0020545438645785032</v>
+        <v>0.0024111611845579204</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0014846104701487885</v>
+        <v>0.0017396666615667113</v>
       </c>
       <c r="I36" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J36" t="n">
-        <v>48.0</v>
+        <v>60.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B37" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C37" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D37" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E37" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F37" t="n">
-        <v>2.9821261397468843E-4</v>
+        <v>2.91292019021457E-4</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0024495576843435647</v>
+        <v>0.0024111611845579204</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0017700468936719177</v>
+        <v>0.0017396666615667113</v>
       </c>
       <c r="I37" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="J37" t="n">
         <v>22.0</v>
@@ -7191,63 +7147,63 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B38" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C38" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D38" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="E38" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F38" t="n">
-        <v>2.9912090534888413E-4</v>
+        <v>2.954071649955068E-4</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0024495576843435647</v>
+        <v>0.0024111611845579204</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0017700468936719177</v>
+        <v>0.0017396666615667113</v>
       </c>
       <c r="I38" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="J38" t="n">
-        <v>60.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B39" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D39" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F39" t="n">
-        <v>3.5720771646787424E-4</v>
+        <v>3.401723430415414E-4</v>
       </c>
       <c r="G39" t="n">
-        <v>0.00284826152867805</v>
+        <v>0.002703474936803829</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0020581497236930152</v>
+        <v>0.0019505727149473425</v>
       </c>
       <c r="I39" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="J39" t="n">
         <v>73.0</v>
@@ -7255,31 +7211,31 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B40" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C40" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="D40" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="E40" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F40" t="n">
-        <v>6.254568283437314E-4</v>
+        <v>5.939953533026075E-4</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004859318435593606</v>
+        <v>0.004599656325574037</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0035113365801753347</v>
+        <v>0.0033186784921360258</v>
       </c>
       <c r="I40" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="J40" t="n">
         <v>85.0</v>
@@ -7287,31 +7243,31 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B41" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C41" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D41" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E41" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0010012216878843916</v>
+        <v>9.793807230143755E-4</v>
       </c>
       <c r="G41" t="n">
-        <v>0.007584254285724267</v>
+        <v>0.007394324458758535</v>
       </c>
       <c r="H41" t="n">
-        <v>0.005480371344209303</v>
+        <v>0.005335047622736204</v>
       </c>
       <c r="I41" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="J41" t="n">
         <v>22.0</v>
@@ -7319,31 +7275,31 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B42" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C42" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="D42" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E42" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F42" t="n">
-        <v>0.001232706083326293</v>
+        <v>0.0011855880077682897</v>
       </c>
       <c r="G42" t="n">
-        <v>0.00910999861580163</v>
+        <v>0.00873286776453716</v>
       </c>
       <c r="H42" t="n">
-        <v>0.006582872023924749</v>
+        <v>0.0063008143159957895</v>
       </c>
       <c r="I42" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="J42" t="n">
         <v>57.0</v>
@@ -7351,31 +7307,31 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B43" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C43" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D43" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E43" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0017623579704562286</v>
+        <v>0.0016973573674290655</v>
       </c>
       <c r="G43" t="n">
-        <v>0.012714153929719935</v>
+        <v>0.012063134654070327</v>
       </c>
       <c r="H43" t="n">
-        <v>0.009187229520172821</v>
+        <v>0.008703621029601106</v>
       </c>
       <c r="I43" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="J43" t="n">
         <v>56.0</v>
@@ -7383,31 +7339,31 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D44" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E44" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0018207474284853066</v>
+        <v>0.0017175986427980928</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01282991792630344</v>
+        <v>0.012063134654070327</v>
       </c>
       <c r="H44" t="n">
-        <v>0.009270880419215272</v>
+        <v>0.008703621029601106</v>
       </c>
       <c r="I44" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J44" t="n">
         <v>120.0</v>
@@ -7415,31 +7371,31 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B45" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C45" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D45" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F45" t="n">
-        <v>0.002010672113177568</v>
+        <v>0.0019777710238118172</v>
       </c>
       <c r="G45" t="n">
-        <v>0.013670961980059536</v>
+        <v>0.013384119067584977</v>
       </c>
       <c r="H45" t="n">
-        <v>0.009878617654515837</v>
+        <v>0.009656718881108715</v>
       </c>
       <c r="I45" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J45" t="n">
         <v>15.0</v>
@@ -7447,31 +7403,31 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B46" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C46" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D46" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E46" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0020303408881276537</v>
+        <v>0.001994322377620278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.013670961980059536</v>
+        <v>0.013384119067584977</v>
       </c>
       <c r="H46" t="n">
-        <v>0.009878617654515837</v>
+        <v>0.009656718881108715</v>
       </c>
       <c r="I46" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J46" t="n">
         <v>17.0</v>
@@ -7479,31 +7435,31 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B47" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C47" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="D47" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E47" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0023563938658504088</v>
+        <v>0.0022928796185674822</v>
       </c>
       <c r="G47" t="n">
-        <v>0.015521463942449432</v>
+        <v>0.015053253147986513</v>
       </c>
       <c r="H47" t="n">
-        <v>0.011215787736770826</v>
+        <v>0.010861008719530179</v>
       </c>
       <c r="I47" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J47" t="n">
         <v>34.0</v>
@@ -7511,31 +7467,31 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B48" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C48" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D48" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E48" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0027581195507716985</v>
+        <v>0.0026821118684377827</v>
       </c>
       <c r="G48" t="n">
-        <v>0.017781068593272865</v>
+        <v>0.017233995409961924</v>
       </c>
       <c r="H48" t="n">
-        <v>0.012848574838981263</v>
+        <v>0.012434426803283785</v>
       </c>
       <c r="I48" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="J48" t="n">
         <v>36.0</v>
@@ -7543,31 +7499,31 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E49" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0029098390328803504</v>
+        <v>0.0028065943986703215</v>
       </c>
       <c r="G49" t="n">
-        <v>0.01836835889505721</v>
+        <v>0.01765815642496744</v>
       </c>
       <c r="H49" t="n">
-        <v>0.013272949974541952</v>
+        <v>0.01274046141501659</v>
       </c>
       <c r="I49" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="J49" t="n">
         <v>56.0</v>
@@ -7575,31 +7531,31 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D50" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="E50" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0030396570295631985</v>
+        <v>0.0029247157742783186</v>
       </c>
       <c r="G50" t="n">
-        <v>0.018796246529747943</v>
+        <v>0.018025799261878618</v>
       </c>
       <c r="H50" t="n">
-        <v>0.013582140969906452</v>
+        <v>0.013005717836210783</v>
       </c>
       <c r="I50" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="J50" t="n">
         <v>63.0</v>
@@ -7607,31 +7563,31 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E51" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0035382910730506613</v>
+        <v>0.0034321994041440775</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02102161166930099</v>
+        <v>0.02032400431473552</v>
       </c>
       <c r="H51" t="n">
-        <v>0.015190186650042056</v>
+        <v>0.014663885999129496</v>
       </c>
       <c r="I51" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J51" t="n">
         <v>43.0</v>
@@ -7639,31 +7595,31 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B52" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C52" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="D52" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E52" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0035382910730506613</v>
+        <v>0.0034321994041440775</v>
       </c>
       <c r="G52" t="n">
-        <v>0.02102161166930099</v>
+        <v>0.02032400431473552</v>
       </c>
       <c r="H52" t="n">
-        <v>0.015190186650042056</v>
+        <v>0.014663885999129496</v>
       </c>
       <c r="I52" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J52" t="n">
         <v>43.0</v>
@@ -7671,31 +7627,31 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B53" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C53" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D53" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="E53" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0036416972338965455</v>
+        <v>0.0035484237691169465</v>
       </c>
       <c r="G53" t="n">
-        <v>0.021219889651358716</v>
+        <v>0.020608153428333036</v>
       </c>
       <c r="H53" t="n">
-        <v>0.01533346203745914</v>
+        <v>0.014868901218769392</v>
       </c>
       <c r="I53" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J53" t="n">
         <v>33.0</v>
@@ -7703,31 +7659,31 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="E54" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003846292370596194</v>
+        <v>0.0036731009371456925</v>
       </c>
       <c r="G54" t="n">
-        <v>0.021667921098026618</v>
+        <v>0.020832928174525672</v>
       </c>
       <c r="H54" t="n">
-        <v>0.01565720892266645</v>
+        <v>0.015031077490856793</v>
       </c>
       <c r="I54" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="J54" t="n">
         <v>89.0</v>
@@ -7735,31 +7691,31 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D55" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E55" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0038616097006384073</v>
+        <v>0.0037250931172992923</v>
       </c>
       <c r="G55" t="n">
-        <v>0.021667921098026618</v>
+        <v>0.020832928174525672</v>
       </c>
       <c r="H55" t="n">
-        <v>0.01565720892266645</v>
+        <v>0.015031077490856793</v>
       </c>
       <c r="I55" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="J55" t="n">
         <v>58.0</v>
@@ -7767,31 +7723,31 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B56" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C56" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D56" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E56" t="s">
-        <v>397</v>
+        <v>669</v>
       </c>
       <c r="F56" t="n">
-        <v>0.004183475433531106</v>
+        <v>0.004073786456906162</v>
       </c>
       <c r="G56" t="n">
-        <v>0.023047146479271363</v>
+        <v>0.02236879109064838</v>
       </c>
       <c r="H56" t="n">
-        <v>0.016653835218650145</v>
+        <v>0.016139211417790917</v>
       </c>
       <c r="I56" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="J56" t="n">
         <v>35.0</v>
@@ -7799,31 +7755,31 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D57" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="E57" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F57" t="n">
-        <v>0.005389356071189951</v>
+        <v>0.005190421141769061</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02871597233126795</v>
+        <v>0.02758201221629291</v>
       </c>
       <c r="H57" t="n">
-        <v>0.020750120704893987</v>
+        <v>0.01990058044187045</v>
       </c>
       <c r="I57" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="J57" t="n">
         <v>66.0</v>
@@ -7831,31 +7787,31 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B58" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C58" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D58" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E58" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F58" t="n">
-        <v>0.005492274977668812</v>
+        <v>0.005205876477909589</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02871597233126795</v>
+        <v>0.02758201221629291</v>
       </c>
       <c r="H58" t="n">
-        <v>0.020750120704893987</v>
+        <v>0.01990058044187045</v>
       </c>
       <c r="I58" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="J58" t="n">
         <v>123.0</v>
@@ -7863,31 +7819,31 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B59" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C59" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="D59" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E59" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F59" t="n">
-        <v>0.005496786782882974</v>
+        <v>0.0053992533689239414</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02871597233126795</v>
+        <v>0.028113353748535005</v>
       </c>
       <c r="H59" t="n">
-        <v>0.020750120704893987</v>
+        <v>0.020283946413198833</v>
       </c>
       <c r="I59" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="J59" t="n">
         <v>19.0</v>
@@ -7895,31 +7851,31 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B60" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="C60" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D60" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E60" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="F60" t="n">
-        <v>0.005870451297462641</v>
+        <v>0.005770254421411261</v>
       </c>
       <c r="G60" t="n">
-        <v>0.030148249883579323</v>
+        <v>0.029535878563833908</v>
       </c>
       <c r="H60" t="n">
-        <v>0.021785082424125416</v>
+        <v>0.02131030624856612</v>
       </c>
       <c r="I60" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="J60" t="n">
         <v>18.0</v>
@@ -7927,31 +7883,31 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="E61" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00620283619135833</v>
+        <v>0.006014237171018597</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03132432276635957</v>
+        <v>0.03027166042746027</v>
       </c>
       <c r="H61" t="n">
-        <v>0.02263491101407952</v>
+        <v>0.021841177094751748</v>
       </c>
       <c r="I61" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="J61" t="n">
         <v>48.0</v>
@@ -7959,31 +7915,31 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D62" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E62" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F62" t="n">
-        <v>0.007419017749600755</v>
+        <v>0.007172177693124771</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03685184226441031</v>
+        <v>0.035393112243177795</v>
       </c>
       <c r="H62" t="n">
-        <v>0.02662908873023222</v>
+        <v>0.02553633403394145</v>
       </c>
       <c r="I62" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="J62" t="n">
         <v>58.0</v>
@@ -7991,31 +7947,31 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B63" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C63" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D63" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E63" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F63" t="n">
-        <v>0.007573503106030094</v>
+        <v>0.007266135626082858</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03701244259882449</v>
+        <v>0.035393112243177795</v>
       </c>
       <c r="H63" t="n">
-        <v>0.026745138303128347</v>
+        <v>0.02553633403394145</v>
       </c>
       <c r="I63" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="J63" t="n">
         <v>83.0</v>
@@ -8023,31 +7979,31 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B64" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="C64" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D64" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E64" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F64" t="n">
-        <v>0.009993646753822215</v>
+        <v>0.009721504532876735</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04806468200647827</v>
+        <v>0.046601497919504346</v>
       </c>
       <c r="H64" t="n">
-        <v>0.03473147075680904</v>
+        <v>0.03362324876032555</v>
       </c>
       <c r="I64" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="J64" t="n">
         <v>43.0</v>
